--- a/street_junctions_zipcode.xlsx
+++ b/street_junctions_zipcode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dewyo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apoorvasrinivasan/Desktop/Sem1/Data Science/P8105_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413BFF87-4901-4CE4-B0C2-F86A0DA96227}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3770E76D-A5F5-A14A-8179-B072891B12E5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="83">
   <si>
     <t>Broadway</t>
   </si>
@@ -268,16 +268,44 @@
   </si>
   <si>
     <t>Thayer STREET</t>
+  </si>
+  <si>
+    <t>Upper West Side</t>
+  </si>
+  <si>
+    <t>10023, 10024, 10025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,13 +328,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,35 +618,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:O508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120:D297"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G301" sqref="G301"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -627,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -641,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -655,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -669,7 +702,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -683,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -697,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -711,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -725,7 +758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -739,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -753,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -767,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -781,7 +814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -795,7 +828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -809,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -823,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -837,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -851,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -865,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -879,7 +912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -893,7 +926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -907,7 +940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -921,7 +954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -935,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -949,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -963,7 +996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -977,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -991,7 +1024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1019,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1061,7 +1094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1103,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1117,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1131,7 +1164,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1145,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1159,7 +1192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1201,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1215,7 +1248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1229,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1243,7 +1276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1257,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1271,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1285,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1299,7 +1332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1313,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -1355,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1425,7 +1458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1439,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +1486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1495,7 +1528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1509,7 +1542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -1523,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -1565,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -1579,7 +1612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1593,7 +1626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1607,7 +1640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -1621,7 +1654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -1649,7 +1682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -1663,7 +1696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -1677,7 +1710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -1691,7 +1724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -1705,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -1719,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -1733,7 +1766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1780,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -1761,7 +1794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1808,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -1789,7 +1822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -1803,7 +1836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -1817,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -1831,7 +1864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -1845,7 +1878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -1873,7 +1906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -1901,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -1915,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -1929,7 +1962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -1943,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -1957,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -1971,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -1985,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -1999,7 +2032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -2013,7 +2046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -2027,7 +2060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -2041,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -2055,7 +2088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -2069,7 +2102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -2083,7 +2116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -2097,7 +2130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>54</v>
       </c>
@@ -2111,7 +2144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -2125,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -2139,7 +2172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -2153,7 +2186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>57</v>
       </c>
@@ -2167,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -2181,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -2195,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>57</v>
       </c>
@@ -2223,7 +2256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>57</v>
       </c>
@@ -2237,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -2251,7 +2284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -2265,7 +2298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -2279,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -2293,7 +2326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -2307,7 +2340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -2321,7 +2354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +2368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -2349,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -2363,7 +2396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -2377,7 +2410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -2391,7 +2424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -2405,7 +2438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -2419,7 +2452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -2433,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -2447,7 +2480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -2461,7 +2494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -2475,7 +2508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -2489,7 +2522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -2503,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -2517,7 +2550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>25</v>
       </c>
@@ -2531,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -2545,7 +2578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -2559,7 +2592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -2573,7 +2606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -2587,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -2615,7 +2648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -2629,7 +2662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -2643,7 +2676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -2657,7 +2690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -2671,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -2685,7 +2718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -2699,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -2713,7 +2746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -2727,7 +2760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -2741,7 +2774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -2755,7 +2788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>27</v>
       </c>
@@ -2769,7 +2802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -2783,7 +2816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>28</v>
       </c>
@@ -2797,7 +2830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -2811,7 +2844,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>28</v>
       </c>
@@ -2825,7 +2858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -2839,7 +2872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -2853,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -2867,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>28</v>
       </c>
@@ -2881,7 +2914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>29</v>
       </c>
@@ -2895,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>29</v>
       </c>
@@ -2909,7 +2942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>29</v>
       </c>
@@ -2923,7 +2956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -2937,7 +2970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -2951,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>29</v>
       </c>
@@ -2965,7 +2998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>29</v>
       </c>
@@ -2979,7 +3012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>29</v>
       </c>
@@ -2993,7 +3026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>52</v>
       </c>
@@ -3007,7 +3040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -3021,7 +3054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>52</v>
       </c>
@@ -3035,7 +3068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>52</v>
       </c>
@@ -3049,7 +3082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>52</v>
       </c>
@@ -3063,7 +3096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>52</v>
       </c>
@@ -3077,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>52</v>
       </c>
@@ -3091,7 +3124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>52</v>
       </c>
@@ -3105,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -3119,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>52</v>
       </c>
@@ -3133,7 +3166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -3147,7 +3180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>55</v>
       </c>
@@ -3161,7 +3194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>55</v>
       </c>
@@ -3175,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>55</v>
       </c>
@@ -3189,7 +3222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>55</v>
       </c>
@@ -3203,7 +3236,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>55</v>
       </c>
@@ -3217,7 +3250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -3231,7 +3264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -3245,7 +3278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -3259,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -3273,7 +3306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>58</v>
       </c>
@@ -3287,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -3301,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -3315,7 +3348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -3329,7 +3362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>30</v>
       </c>
@@ -3343,7 +3376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>30</v>
       </c>
@@ -3357,7 +3390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>30</v>
       </c>
@@ -3371,7 +3404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -3385,7 +3418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -3399,7 +3432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -3413,7 +3446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>30</v>
       </c>
@@ -3427,7 +3460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -3441,7 +3474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -3455,7 +3488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>31</v>
       </c>
@@ -3469,7 +3502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -3483,7 +3516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -3497,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -3511,7 +3544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>31</v>
       </c>
@@ -3525,7 +3558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -3539,7 +3572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -3553,7 +3586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -3567,7 +3600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -3581,7 +3614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -3595,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -3609,7 +3642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -3623,7 +3656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -3637,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -3651,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -3665,7 +3698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -3679,7 +3712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -3693,7 +3726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>33</v>
       </c>
@@ -3707,7 +3740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>33</v>
       </c>
@@ -3721,7 +3754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>33</v>
       </c>
@@ -3735,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>33</v>
       </c>
@@ -3749,7 +3782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -3763,7 +3796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -3777,7 +3810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -3791,7 +3824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -3805,7 +3838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -3819,7 +3852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>33</v>
       </c>
@@ -3833,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>61</v>
       </c>
@@ -3847,7 +3880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>61</v>
       </c>
@@ -3861,7 +3894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>61</v>
       </c>
@@ -3875,7 +3908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>61</v>
       </c>
@@ -3889,7 +3922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>61</v>
       </c>
@@ -3903,7 +3936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -3917,7 +3950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>63</v>
       </c>
@@ -3931,7 +3964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>63</v>
       </c>
@@ -3945,7 +3978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>63</v>
       </c>
@@ -3959,7 +3992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>63</v>
       </c>
@@ -3973,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>63</v>
       </c>
@@ -3987,7 +4020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>63</v>
       </c>
@@ -4001,7 +4034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>63</v>
       </c>
@@ -4015,7 +4048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>64</v>
       </c>
@@ -4029,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>64</v>
       </c>
@@ -4043,7 +4076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>64</v>
       </c>
@@ -4057,7 +4090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>64</v>
       </c>
@@ -4071,7 +4104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>64</v>
       </c>
@@ -4085,7 +4118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>64</v>
       </c>
@@ -4099,7 +4132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>64</v>
       </c>
@@ -4113,7 +4146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>64</v>
       </c>
@@ -4127,7 +4160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>64</v>
       </c>
@@ -4141,7 +4174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>64</v>
       </c>
@@ -4155,7 +4188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>65</v>
       </c>
@@ -4169,7 +4202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>65</v>
       </c>
@@ -4183,7 +4216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>65</v>
       </c>
@@ -4197,7 +4230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>66</v>
       </c>
@@ -4211,7 +4244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>66</v>
       </c>
@@ -4225,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>66</v>
       </c>
@@ -4239,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>66</v>
       </c>
@@ -4253,7 +4286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>66</v>
       </c>
@@ -4267,7 +4300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -4281,7 +4314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>68</v>
       </c>
@@ -4295,7 +4328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>68</v>
       </c>
@@ -4309,7 +4342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -4323,7 +4356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>34</v>
       </c>
@@ -4337,7 +4370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -4351,7 +4384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>67</v>
       </c>
@@ -4365,7 +4398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>67</v>
       </c>
@@ -4379,7 +4412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>67</v>
       </c>
@@ -4393,7 +4426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -4407,7 +4440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>68</v>
       </c>
@@ -4421,7 +4454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>44</v>
       </c>
@@ -4435,7 +4468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>44</v>
       </c>
@@ -4449,7 +4482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>72</v>
       </c>
@@ -4463,7 +4496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>72</v>
       </c>
@@ -4477,7 +4510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>72</v>
       </c>
@@ -4491,7 +4524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>71</v>
       </c>
@@ -4505,7 +4538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>73</v>
       </c>
@@ -4519,7 +4552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>75</v>
       </c>
@@ -4533,7 +4566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>75</v>
       </c>
@@ -4547,7 +4580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>74</v>
       </c>
@@ -4561,7 +4594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>76</v>
       </c>
@@ -4575,7 +4608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>77</v>
       </c>
@@ -4589,7 +4622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>77</v>
       </c>
@@ -4603,7 +4636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>77</v>
       </c>
@@ -4617,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -4631,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>79</v>
       </c>
@@ -4645,7 +4678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>79</v>
       </c>
@@ -4659,7 +4692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>79</v>
       </c>
@@ -4673,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>79</v>
       </c>
@@ -4686,8 +4719,12 @@
       <c r="D292" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H292" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O292" s="3"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>80</v>
       </c>
@@ -4700,8 +4737,9 @@
       <c r="D293" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O293" s="3"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>80</v>
       </c>
@@ -4714,8 +4752,9 @@
       <c r="D294" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O294" s="3"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>80</v>
       </c>
@@ -4728,8 +4767,9 @@
       <c r="D295" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O295" s="3"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>80</v>
       </c>
@@ -4742,8 +4782,9 @@
       <c r="D296" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O296" s="3"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>80</v>
       </c>
@@ -4756,6 +4797,1288 @@
       <c r="D297" t="s">
         <v>4</v>
       </c>
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C298">
+        <v>10024</v>
+      </c>
+      <c r="D298" t="s">
+        <v>81</v>
+      </c>
+      <c r="O298" s="3"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C299">
+        <v>10024</v>
+      </c>
+      <c r="D299" t="s">
+        <v>81</v>
+      </c>
+      <c r="O299" s="3"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C300">
+        <v>10024</v>
+      </c>
+      <c r="D300" t="s">
+        <v>81</v>
+      </c>
+      <c r="O300" s="3"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C301">
+        <v>10024</v>
+      </c>
+      <c r="D301" t="s">
+        <v>81</v>
+      </c>
+      <c r="O301" s="3"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C302">
+        <v>10024</v>
+      </c>
+      <c r="D302" t="s">
+        <v>81</v>
+      </c>
+      <c r="O302" s="3"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C303">
+        <v>10024</v>
+      </c>
+      <c r="D303" t="s">
+        <v>81</v>
+      </c>
+      <c r="O303" s="3"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C304">
+        <v>10024</v>
+      </c>
+      <c r="D304" t="s">
+        <v>81</v>
+      </c>
+      <c r="O304" s="3"/>
+    </row>
+    <row r="305" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C305">
+        <v>10024</v>
+      </c>
+      <c r="D305" t="s">
+        <v>81</v>
+      </c>
+      <c r="O305" s="3"/>
+    </row>
+    <row r="306" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C306">
+        <v>10024</v>
+      </c>
+      <c r="D306" t="s">
+        <v>81</v>
+      </c>
+      <c r="O306" s="3"/>
+    </row>
+    <row r="307" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C307">
+        <v>10024</v>
+      </c>
+      <c r="D307" t="s">
+        <v>81</v>
+      </c>
+      <c r="O307" s="3"/>
+    </row>
+    <row r="308" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C308">
+        <v>10024</v>
+      </c>
+      <c r="D308" t="s">
+        <v>81</v>
+      </c>
+      <c r="O308" s="3"/>
+    </row>
+    <row r="309" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C309">
+        <v>10024</v>
+      </c>
+      <c r="D309" t="s">
+        <v>81</v>
+      </c>
+      <c r="O309" s="3"/>
+    </row>
+    <row r="310" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C310">
+        <v>10024</v>
+      </c>
+      <c r="D310" t="s">
+        <v>81</v>
+      </c>
+      <c r="O310" s="3"/>
+    </row>
+    <row r="311" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C311">
+        <v>10024</v>
+      </c>
+      <c r="D311" t="s">
+        <v>81</v>
+      </c>
+      <c r="O311" s="3"/>
+    </row>
+    <row r="312" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C312">
+        <v>10024</v>
+      </c>
+      <c r="D312" t="s">
+        <v>81</v>
+      </c>
+      <c r="O312" s="3"/>
+    </row>
+    <row r="313" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C313">
+        <v>10024</v>
+      </c>
+      <c r="D313" t="s">
+        <v>81</v>
+      </c>
+      <c r="O313" s="3"/>
+    </row>
+    <row r="314" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C314">
+        <v>10024</v>
+      </c>
+      <c r="D314" t="s">
+        <v>81</v>
+      </c>
+      <c r="O314" s="3"/>
+    </row>
+    <row r="315" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C315">
+        <v>10024</v>
+      </c>
+      <c r="D315" t="s">
+        <v>81</v>
+      </c>
+      <c r="O315" s="3"/>
+    </row>
+    <row r="316" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C316">
+        <v>10024</v>
+      </c>
+      <c r="D316" t="s">
+        <v>81</v>
+      </c>
+      <c r="O316" s="3"/>
+    </row>
+    <row r="317" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C317">
+        <v>10024</v>
+      </c>
+      <c r="D317" t="s">
+        <v>81</v>
+      </c>
+      <c r="O317" s="3"/>
+    </row>
+    <row r="318" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C318">
+        <v>10024</v>
+      </c>
+      <c r="D318" t="s">
+        <v>81</v>
+      </c>
+      <c r="O318" s="3"/>
+    </row>
+    <row r="319" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C319">
+        <v>10024</v>
+      </c>
+      <c r="D319" t="s">
+        <v>81</v>
+      </c>
+      <c r="O319" s="3"/>
+    </row>
+    <row r="320" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C320">
+        <v>10024</v>
+      </c>
+      <c r="D320" t="s">
+        <v>81</v>
+      </c>
+      <c r="O320" s="3"/>
+    </row>
+    <row r="321" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C321">
+        <v>10024</v>
+      </c>
+      <c r="D321" t="s">
+        <v>81</v>
+      </c>
+      <c r="O321" s="3"/>
+    </row>
+    <row r="322" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C322">
+        <v>10024</v>
+      </c>
+      <c r="D322" t="s">
+        <v>81</v>
+      </c>
+      <c r="O322" s="3"/>
+    </row>
+    <row r="323" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C323">
+        <v>10024</v>
+      </c>
+      <c r="D323" t="s">
+        <v>81</v>
+      </c>
+      <c r="O323" s="3"/>
+    </row>
+    <row r="324" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C324">
+        <v>10024</v>
+      </c>
+      <c r="D324" t="s">
+        <v>81</v>
+      </c>
+      <c r="O324" s="3"/>
+    </row>
+    <row r="325" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C325">
+        <v>10024</v>
+      </c>
+      <c r="D325" t="s">
+        <v>81</v>
+      </c>
+      <c r="O325" s="3"/>
+    </row>
+    <row r="326" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C326">
+        <v>10024</v>
+      </c>
+      <c r="D326" t="s">
+        <v>81</v>
+      </c>
+      <c r="O326" s="3"/>
+    </row>
+    <row r="327" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C327">
+        <v>10024</v>
+      </c>
+      <c r="D327" t="s">
+        <v>81</v>
+      </c>
+      <c r="O327" s="3"/>
+    </row>
+    <row r="328" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C328">
+        <v>10024</v>
+      </c>
+      <c r="D328" t="s">
+        <v>81</v>
+      </c>
+      <c r="O328" s="3"/>
+    </row>
+    <row r="329" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C329">
+        <v>10024</v>
+      </c>
+      <c r="D329" t="s">
+        <v>81</v>
+      </c>
+      <c r="O329" s="3"/>
+    </row>
+    <row r="330" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C330">
+        <v>10024</v>
+      </c>
+      <c r="D330" t="s">
+        <v>81</v>
+      </c>
+      <c r="O330" s="3"/>
+    </row>
+    <row r="331" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C331">
+        <v>10024</v>
+      </c>
+      <c r="D331" t="s">
+        <v>81</v>
+      </c>
+      <c r="O331" s="3"/>
+    </row>
+    <row r="332" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C332">
+        <v>10024</v>
+      </c>
+      <c r="D332" t="s">
+        <v>81</v>
+      </c>
+      <c r="O332" s="3"/>
+    </row>
+    <row r="333" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C333">
+        <v>10024</v>
+      </c>
+      <c r="D333" t="s">
+        <v>81</v>
+      </c>
+      <c r="O333" s="3"/>
+    </row>
+    <row r="334" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C334">
+        <v>10024</v>
+      </c>
+      <c r="D334" t="s">
+        <v>81</v>
+      </c>
+      <c r="O334" s="3"/>
+    </row>
+    <row r="335" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C335">
+        <v>10024</v>
+      </c>
+      <c r="D335" t="s">
+        <v>81</v>
+      </c>
+      <c r="O335" s="3"/>
+    </row>
+    <row r="336" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C336">
+        <v>10024</v>
+      </c>
+      <c r="D336" t="s">
+        <v>81</v>
+      </c>
+      <c r="O336" s="3"/>
+    </row>
+    <row r="337" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C337">
+        <v>10024</v>
+      </c>
+      <c r="D337" t="s">
+        <v>81</v>
+      </c>
+      <c r="O337" s="3"/>
+    </row>
+    <row r="338" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C338">
+        <v>10024</v>
+      </c>
+      <c r="D338" t="s">
+        <v>81</v>
+      </c>
+      <c r="O338" s="3"/>
+    </row>
+    <row r="339" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C339">
+        <v>10024</v>
+      </c>
+      <c r="D339" t="s">
+        <v>81</v>
+      </c>
+      <c r="O339" s="3"/>
+    </row>
+    <row r="340" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C340">
+        <v>10024</v>
+      </c>
+      <c r="D340" t="s">
+        <v>81</v>
+      </c>
+      <c r="O340" s="3"/>
+    </row>
+    <row r="341" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C341">
+        <v>10024</v>
+      </c>
+      <c r="D341" t="s">
+        <v>81</v>
+      </c>
+      <c r="O341" s="3"/>
+    </row>
+    <row r="342" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C342">
+        <v>10024</v>
+      </c>
+      <c r="D342" t="s">
+        <v>81</v>
+      </c>
+      <c r="O342" s="3"/>
+    </row>
+    <row r="343" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C343">
+        <v>10024</v>
+      </c>
+      <c r="D343" t="s">
+        <v>81</v>
+      </c>
+      <c r="O343" s="3"/>
+    </row>
+    <row r="344" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C344">
+        <v>10024</v>
+      </c>
+      <c r="D344" t="s">
+        <v>81</v>
+      </c>
+      <c r="O344" s="3"/>
+    </row>
+    <row r="345" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C345">
+        <v>10024</v>
+      </c>
+      <c r="D345" t="s">
+        <v>81</v>
+      </c>
+      <c r="O345" s="3"/>
+    </row>
+    <row r="346" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C346">
+        <v>10024</v>
+      </c>
+      <c r="D346" t="s">
+        <v>81</v>
+      </c>
+      <c r="O346" s="3"/>
+    </row>
+    <row r="347" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C347">
+        <v>10024</v>
+      </c>
+      <c r="D347" t="s">
+        <v>81</v>
+      </c>
+      <c r="O347" s="3"/>
+    </row>
+    <row r="348" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C348">
+        <v>10024</v>
+      </c>
+      <c r="D348" t="s">
+        <v>81</v>
+      </c>
+      <c r="O348" s="3"/>
+    </row>
+    <row r="349" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C349">
+        <v>10024</v>
+      </c>
+      <c r="D349" t="s">
+        <v>81</v>
+      </c>
+      <c r="O349" s="3"/>
+    </row>
+    <row r="350" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C350">
+        <v>10024</v>
+      </c>
+      <c r="D350" t="s">
+        <v>81</v>
+      </c>
+      <c r="O350" s="3"/>
+    </row>
+    <row r="351" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C351">
+        <v>10024</v>
+      </c>
+      <c r="D351" t="s">
+        <v>81</v>
+      </c>
+      <c r="O351" s="3"/>
+    </row>
+    <row r="352" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C352">
+        <v>10024</v>
+      </c>
+      <c r="D352" t="s">
+        <v>81</v>
+      </c>
+      <c r="O352" s="3"/>
+    </row>
+    <row r="353" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C353">
+        <v>10024</v>
+      </c>
+      <c r="D353" t="s">
+        <v>81</v>
+      </c>
+      <c r="O353" s="3"/>
+    </row>
+    <row r="354" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C354">
+        <v>10024</v>
+      </c>
+      <c r="D354" t="s">
+        <v>81</v>
+      </c>
+      <c r="O354" s="3"/>
+    </row>
+    <row r="355" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C355">
+        <v>10024</v>
+      </c>
+      <c r="D355" t="s">
+        <v>81</v>
+      </c>
+      <c r="O355" s="3"/>
+    </row>
+    <row r="356" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C356">
+        <v>10024</v>
+      </c>
+      <c r="D356" t="s">
+        <v>81</v>
+      </c>
+      <c r="O356" s="3"/>
+    </row>
+    <row r="357" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C357">
+        <v>10024</v>
+      </c>
+      <c r="D357" t="s">
+        <v>81</v>
+      </c>
+      <c r="O357" s="3"/>
+    </row>
+    <row r="358" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C358">
+        <v>10024</v>
+      </c>
+      <c r="D358" t="s">
+        <v>81</v>
+      </c>
+      <c r="O358" s="3"/>
+    </row>
+    <row r="359" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C359">
+        <v>10024</v>
+      </c>
+      <c r="D359" t="s">
+        <v>81</v>
+      </c>
+      <c r="O359" s="3"/>
+    </row>
+    <row r="360" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C360">
+        <v>10024</v>
+      </c>
+      <c r="D360" t="s">
+        <v>81</v>
+      </c>
+      <c r="O360" s="3"/>
+    </row>
+    <row r="361" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C361">
+        <v>10024</v>
+      </c>
+      <c r="D361" t="s">
+        <v>81</v>
+      </c>
+      <c r="O361" s="3"/>
+    </row>
+    <row r="362" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C362">
+        <v>10024</v>
+      </c>
+      <c r="D362" t="s">
+        <v>81</v>
+      </c>
+      <c r="O362" s="3"/>
+    </row>
+    <row r="363" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C363">
+        <v>10024</v>
+      </c>
+      <c r="D363" t="s">
+        <v>81</v>
+      </c>
+      <c r="O363" s="3"/>
+    </row>
+    <row r="364" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C364">
+        <v>10024</v>
+      </c>
+      <c r="D364" t="s">
+        <v>81</v>
+      </c>
+      <c r="O364" s="3"/>
+    </row>
+    <row r="365" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C365">
+        <v>10024</v>
+      </c>
+      <c r="D365" t="s">
+        <v>81</v>
+      </c>
+      <c r="O365" s="3"/>
+    </row>
+    <row r="366" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C366">
+        <v>10024</v>
+      </c>
+      <c r="D366" t="s">
+        <v>81</v>
+      </c>
+      <c r="O366" s="3"/>
+    </row>
+    <row r="367" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C367">
+        <v>10024</v>
+      </c>
+      <c r="D367" t="s">
+        <v>81</v>
+      </c>
+      <c r="O367" s="3"/>
+    </row>
+    <row r="368" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C368">
+        <v>10024</v>
+      </c>
+      <c r="D368" t="s">
+        <v>81</v>
+      </c>
+      <c r="O368" s="3"/>
+    </row>
+    <row r="369" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C369">
+        <v>10024</v>
+      </c>
+      <c r="D369" t="s">
+        <v>81</v>
+      </c>
+      <c r="O369" s="3"/>
+    </row>
+    <row r="370" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <v>10024</v>
+      </c>
+      <c r="D370" t="s">
+        <v>81</v>
+      </c>
+      <c r="O370" s="3"/>
+    </row>
+    <row r="371" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <v>10024</v>
+      </c>
+      <c r="D371" t="s">
+        <v>81</v>
+      </c>
+      <c r="O371" s="3"/>
+    </row>
+    <row r="372" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <v>10024</v>
+      </c>
+      <c r="D372" t="s">
+        <v>81</v>
+      </c>
+      <c r="O372" s="3"/>
+    </row>
+    <row r="373" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <v>10024</v>
+      </c>
+      <c r="D373" t="s">
+        <v>81</v>
+      </c>
+      <c r="O373" s="3"/>
+    </row>
+    <row r="374" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <v>10024</v>
+      </c>
+      <c r="D374" t="s">
+        <v>81</v>
+      </c>
+      <c r="O374" s="3"/>
+    </row>
+    <row r="375" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <v>10024</v>
+      </c>
+      <c r="D375" t="s">
+        <v>81</v>
+      </c>
+      <c r="O375" s="3"/>
+    </row>
+    <row r="376" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <v>10024</v>
+      </c>
+      <c r="D376" t="s">
+        <v>81</v>
+      </c>
+      <c r="O376" s="3"/>
+    </row>
+    <row r="377" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <v>10024</v>
+      </c>
+      <c r="D377" t="s">
+        <v>81</v>
+      </c>
+      <c r="O377" s="3"/>
+    </row>
+    <row r="378" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <v>10024</v>
+      </c>
+      <c r="D378" t="s">
+        <v>81</v>
+      </c>
+      <c r="O378" s="3"/>
+    </row>
+    <row r="379" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C379">
+        <v>10024</v>
+      </c>
+      <c r="D379" t="s">
+        <v>81</v>
+      </c>
+      <c r="O379" s="3"/>
+    </row>
+    <row r="380" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C380">
+        <v>10024</v>
+      </c>
+      <c r="D380" t="s">
+        <v>81</v>
+      </c>
+      <c r="O380" s="3"/>
+    </row>
+    <row r="381" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C381">
+        <v>10024</v>
+      </c>
+      <c r="D381" t="s">
+        <v>81</v>
+      </c>
+      <c r="O381" s="3"/>
+    </row>
+    <row r="382" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C382">
+        <v>10024</v>
+      </c>
+      <c r="D382" t="s">
+        <v>81</v>
+      </c>
+      <c r="O382" s="3"/>
+    </row>
+    <row r="383" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C383">
+        <v>10024</v>
+      </c>
+      <c r="D383" t="s">
+        <v>81</v>
+      </c>
+      <c r="O383" s="3"/>
+    </row>
+    <row r="384" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C384">
+        <v>10024</v>
+      </c>
+      <c r="D384" t="s">
+        <v>81</v>
+      </c>
+      <c r="O384" s="3"/>
+    </row>
+    <row r="385" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C385">
+        <v>10024</v>
+      </c>
+      <c r="D385" t="s">
+        <v>81</v>
+      </c>
+      <c r="O385" s="3"/>
+    </row>
+    <row r="386" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C386">
+        <v>10024</v>
+      </c>
+      <c r="D386" t="s">
+        <v>81</v>
+      </c>
+      <c r="O386" s="3"/>
+    </row>
+    <row r="387" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C387">
+        <v>10024</v>
+      </c>
+      <c r="D387" t="s">
+        <v>81</v>
+      </c>
+      <c r="O387" s="3"/>
+    </row>
+    <row r="388" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C388">
+        <v>10024</v>
+      </c>
+      <c r="D388" t="s">
+        <v>81</v>
+      </c>
+      <c r="O388" s="3"/>
+    </row>
+    <row r="389" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C389">
+        <v>10024</v>
+      </c>
+      <c r="D389" t="s">
+        <v>81</v>
+      </c>
+      <c r="O389" s="3"/>
+    </row>
+    <row r="390" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C390">
+        <v>10024</v>
+      </c>
+      <c r="D390" t="s">
+        <v>81</v>
+      </c>
+      <c r="O390" s="3"/>
+    </row>
+    <row r="391" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C391">
+        <v>10024</v>
+      </c>
+      <c r="D391" t="s">
+        <v>81</v>
+      </c>
+      <c r="O391" s="3"/>
+    </row>
+    <row r="392" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C392">
+        <v>10024</v>
+      </c>
+      <c r="D392" t="s">
+        <v>81</v>
+      </c>
+      <c r="O392" s="3"/>
+    </row>
+    <row r="393" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C393">
+        <v>10024</v>
+      </c>
+      <c r="D393" t="s">
+        <v>81</v>
+      </c>
+      <c r="O393" s="3"/>
+    </row>
+    <row r="394" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C394">
+        <v>10024</v>
+      </c>
+      <c r="D394" t="s">
+        <v>81</v>
+      </c>
+      <c r="O394" s="3"/>
+    </row>
+    <row r="395" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C395">
+        <v>10024</v>
+      </c>
+      <c r="D395" t="s">
+        <v>81</v>
+      </c>
+      <c r="O395" s="3"/>
+    </row>
+    <row r="396" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C396">
+        <v>10024</v>
+      </c>
+      <c r="D396" t="s">
+        <v>81</v>
+      </c>
+      <c r="O396" s="3"/>
+    </row>
+    <row r="397" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C397">
+        <v>10024</v>
+      </c>
+      <c r="D397" t="s">
+        <v>81</v>
+      </c>
+      <c r="O397" s="3"/>
+    </row>
+    <row r="398" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C398">
+        <v>10024</v>
+      </c>
+      <c r="D398" t="s">
+        <v>81</v>
+      </c>
+      <c r="O398" s="3"/>
+    </row>
+    <row r="399" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C399">
+        <v>10024</v>
+      </c>
+      <c r="D399" t="s">
+        <v>81</v>
+      </c>
+      <c r="O399" s="3"/>
+    </row>
+    <row r="400" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C400">
+        <v>10024</v>
+      </c>
+      <c r="D400" t="s">
+        <v>81</v>
+      </c>
+      <c r="O400" s="3"/>
+    </row>
+    <row r="401" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C401">
+        <v>10024</v>
+      </c>
+      <c r="D401" t="s">
+        <v>81</v>
+      </c>
+      <c r="O401" s="3"/>
+    </row>
+    <row r="402" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C402">
+        <v>10024</v>
+      </c>
+      <c r="D402" t="s">
+        <v>81</v>
+      </c>
+      <c r="O402" s="3"/>
+    </row>
+    <row r="403" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C403">
+        <v>10024</v>
+      </c>
+      <c r="D403" t="s">
+        <v>81</v>
+      </c>
+      <c r="O403" s="3"/>
+    </row>
+    <row r="404" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C404">
+        <v>10024</v>
+      </c>
+      <c r="D404" t="s">
+        <v>81</v>
+      </c>
+      <c r="O404" s="3"/>
+    </row>
+    <row r="405" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C405">
+        <v>10024</v>
+      </c>
+      <c r="D405" t="s">
+        <v>81</v>
+      </c>
+      <c r="O405" s="3"/>
+    </row>
+    <row r="406" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O406" s="3"/>
+    </row>
+    <row r="407" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O407" s="3"/>
+    </row>
+    <row r="408" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O408" s="3"/>
+    </row>
+    <row r="409" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O409" s="3"/>
+    </row>
+    <row r="410" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O410" s="3"/>
+    </row>
+    <row r="411" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O411" s="3"/>
+    </row>
+    <row r="412" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O412" s="3"/>
+    </row>
+    <row r="413" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O413" s="3"/>
+    </row>
+    <row r="414" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O414" s="3"/>
+    </row>
+    <row r="415" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O415" s="3"/>
+    </row>
+    <row r="416" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O416" s="3"/>
+    </row>
+    <row r="417" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O417" s="3"/>
+    </row>
+    <row r="418" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O418" s="3"/>
+    </row>
+    <row r="419" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O419" s="3"/>
+    </row>
+    <row r="420" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O420" s="3"/>
+    </row>
+    <row r="421" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O421" s="3"/>
+    </row>
+    <row r="422" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O422" s="3"/>
+    </row>
+    <row r="423" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O423" s="3"/>
+    </row>
+    <row r="424" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O424" s="3"/>
+    </row>
+    <row r="425" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O425" s="3"/>
+    </row>
+    <row r="426" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O426" s="3"/>
+    </row>
+    <row r="427" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O427" s="3"/>
+    </row>
+    <row r="428" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O428" s="3"/>
+    </row>
+    <row r="429" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O429" s="3"/>
+    </row>
+    <row r="430" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O430" s="3"/>
+    </row>
+    <row r="431" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O431" s="3"/>
+    </row>
+    <row r="432" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O432" s="3"/>
+    </row>
+    <row r="433" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O433" s="3"/>
+    </row>
+    <row r="434" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O434" s="3"/>
+    </row>
+    <row r="435" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O435" s="3"/>
+    </row>
+    <row r="436" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O436" s="3"/>
+    </row>
+    <row r="437" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O437" s="3"/>
+    </row>
+    <row r="438" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O438" s="3"/>
+    </row>
+    <row r="439" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O439" s="3"/>
+    </row>
+    <row r="440" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O440" s="3"/>
+    </row>
+    <row r="441" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O441" s="3"/>
+    </row>
+    <row r="442" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O442" s="3"/>
+    </row>
+    <row r="443" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O443" s="3"/>
+    </row>
+    <row r="444" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O444" s="3"/>
+    </row>
+    <row r="445" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O445" s="3"/>
+    </row>
+    <row r="446" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O446" s="3"/>
+    </row>
+    <row r="447" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O447" s="3"/>
+    </row>
+    <row r="448" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O448" s="3"/>
+    </row>
+    <row r="449" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O449" s="3"/>
+    </row>
+    <row r="450" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O450" s="3"/>
+    </row>
+    <row r="451" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O451" s="3"/>
+    </row>
+    <row r="452" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O452" s="3"/>
+    </row>
+    <row r="453" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O453" s="3"/>
+    </row>
+    <row r="454" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O454" s="3"/>
+    </row>
+    <row r="455" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O455" s="3"/>
+    </row>
+    <row r="456" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O456" s="3"/>
+    </row>
+    <row r="457" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O457" s="3"/>
+    </row>
+    <row r="458" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O458" s="3"/>
+    </row>
+    <row r="459" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O459" s="3"/>
+    </row>
+    <row r="460" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O460" s="3"/>
+    </row>
+    <row r="461" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O461" s="3"/>
+    </row>
+    <row r="462" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O462" s="3"/>
+    </row>
+    <row r="463" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O463" s="3"/>
+    </row>
+    <row r="464" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O464" s="3"/>
+    </row>
+    <row r="465" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O465" s="3"/>
+    </row>
+    <row r="466" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O466" s="3"/>
+    </row>
+    <row r="467" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O467" s="3"/>
+    </row>
+    <row r="468" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O468" s="3"/>
+    </row>
+    <row r="469" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O469" s="3"/>
+    </row>
+    <row r="470" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O470" s="3"/>
+    </row>
+    <row r="471" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O471" s="3"/>
+    </row>
+    <row r="472" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O472" s="3"/>
+    </row>
+    <row r="473" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O473" s="3"/>
+    </row>
+    <row r="474" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O474" s="3"/>
+    </row>
+    <row r="475" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O475" s="3"/>
+    </row>
+    <row r="476" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O476" s="3"/>
+    </row>
+    <row r="477" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O477" s="3"/>
+    </row>
+    <row r="478" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O478" s="3"/>
+    </row>
+    <row r="479" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O479" s="3"/>
+    </row>
+    <row r="480" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O480" s="3"/>
+    </row>
+    <row r="481" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O481" s="3"/>
+    </row>
+    <row r="482" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O482" s="3"/>
+    </row>
+    <row r="483" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O483" s="3"/>
+    </row>
+    <row r="484" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O484" s="3"/>
+    </row>
+    <row r="485" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O485" s="3"/>
+    </row>
+    <row r="486" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O486" s="3"/>
+    </row>
+    <row r="487" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O487" s="3"/>
+    </row>
+    <row r="488" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O488" s="3"/>
+    </row>
+    <row r="489" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O489" s="3"/>
+    </row>
+    <row r="490" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O490" s="3"/>
+    </row>
+    <row r="491" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O491" s="3"/>
+    </row>
+    <row r="492" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O492" s="3"/>
+    </row>
+    <row r="493" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O493" s="3"/>
+    </row>
+    <row r="494" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O494" s="3"/>
+    </row>
+    <row r="495" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O495" s="3"/>
+    </row>
+    <row r="496" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O496" s="3"/>
+    </row>
+    <row r="497" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O497" s="3"/>
+    </row>
+    <row r="498" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O498" s="3"/>
+    </row>
+    <row r="499" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O499" s="3"/>
+    </row>
+    <row r="500" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O500" s="3"/>
+    </row>
+    <row r="501" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O501" s="3"/>
+    </row>
+    <row r="502" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O502" s="3"/>
+    </row>
+    <row r="503" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O503" s="3"/>
+    </row>
+    <row r="504" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O504" s="3"/>
+    </row>
+    <row r="505" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O505" s="3"/>
+    </row>
+    <row r="506" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O506" s="3"/>
+    </row>
+    <row r="507" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O507" s="3"/>
+    </row>
+    <row r="508" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O508" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/street_junctions_zipcode.xlsx
+++ b/street_junctions_zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apoorvasrinivasan/Desktop/Sem1/Data Science/P8105_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3770E76D-A5F5-A14A-8179-B072891B12E5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A388CAE-AE0D-274F-A96E-7C919FD5E66D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="147">
   <si>
     <t>Broadway</t>
   </si>
@@ -274,6 +274,198 @@
   </si>
   <si>
     <t>10023, 10024, 10025</t>
+  </si>
+  <si>
+    <t>Central Park West</t>
+  </si>
+  <si>
+    <t>WEST 76TH STREET</t>
+  </si>
+  <si>
+    <t>Columbus Avenue</t>
+  </si>
+  <si>
+    <t>West End Avenue</t>
+  </si>
+  <si>
+    <t>Riverside Drive</t>
+  </si>
+  <si>
+    <t>WEST 75TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 74TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 73RD STREET</t>
+  </si>
+  <si>
+    <t>WEST 74th STREET</t>
+  </si>
+  <si>
+    <t>WEST 72ND STREET</t>
+  </si>
+  <si>
+    <t>Riverside Boulevard</t>
+  </si>
+  <si>
+    <t>WEST 71ST STREET</t>
+  </si>
+  <si>
+    <t>WEST 70TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 60TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 69TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 68TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 67TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 66TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 65TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 64TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 63TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 62ND STREET</t>
+  </si>
+  <si>
+    <t>WEST 61ST STREET</t>
+  </si>
+  <si>
+    <t>WEST 91ST STREET</t>
+  </si>
+  <si>
+    <t>WEST 90TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 89TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 88TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 87TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 86TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 85TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 84TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 83RD STREET</t>
+  </si>
+  <si>
+    <t>WEST 82ND STREET</t>
+  </si>
+  <si>
+    <t>WEST 81ST STREET</t>
+  </si>
+  <si>
+    <t>WEST 80TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 79TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 78TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 77TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 115TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 114th STREET</t>
+  </si>
+  <si>
+    <t>WEST 113TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 112TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 111TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 110TH STREET</t>
+  </si>
+  <si>
+    <t>Manhattan Avenue</t>
+  </si>
+  <si>
+    <t>WEST 109TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 108TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 107TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 106TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 105TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 104TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 103TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 102TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 101TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 100TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 99TH STREET</t>
+  </si>
+  <si>
+    <t>BROADWAY</t>
+  </si>
+  <si>
+    <t>WEST 98TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 97TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 96TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 95TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 94TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 93TH STREET</t>
+  </si>
+  <si>
+    <t>WEST 92TH STREET</t>
   </si>
 </sst>
 </file>
@@ -618,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O508"/>
+  <dimension ref="A1:O623"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="D624" sqref="D624:D670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4800,8 +4992,14 @@
       <c r="O297" s="3"/>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>84</v>
+      </c>
+      <c r="B298" t="s">
+        <v>83</v>
+      </c>
       <c r="C298">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D298" t="s">
         <v>81</v>
@@ -4809,8 +5007,14 @@
       <c r="O298" s="3"/>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>84</v>
+      </c>
+      <c r="B299" t="s">
+        <v>85</v>
+      </c>
       <c r="C299">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D299" t="s">
         <v>81</v>
@@ -4818,8 +5022,14 @@
       <c r="O299" s="3"/>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>84</v>
+      </c>
+      <c r="B300" t="s">
+        <v>36</v>
+      </c>
       <c r="C300">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D300" t="s">
         <v>81</v>
@@ -4827,8 +5037,14 @@
       <c r="O300" s="3"/>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>84</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
       <c r="C301">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D301" t="s">
         <v>81</v>
@@ -4836,8 +5052,14 @@
       <c r="O301" s="3"/>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>84</v>
+      </c>
+      <c r="B302" t="s">
+        <v>86</v>
+      </c>
       <c r="C302">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D302" t="s">
         <v>81</v>
@@ -4845,8 +5067,14 @@
       <c r="O302" s="3"/>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>84</v>
+      </c>
+      <c r="B303" t="s">
+        <v>87</v>
+      </c>
       <c r="C303">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D303" t="s">
         <v>81</v>
@@ -4854,762 +5082,1272 @@
       <c r="O303" s="3"/>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>88</v>
+      </c>
+      <c r="B304" t="s">
+        <v>83</v>
+      </c>
       <c r="C304">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D304" t="s">
         <v>81</v>
       </c>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>88</v>
+      </c>
+      <c r="B305" t="s">
+        <v>85</v>
+      </c>
       <c r="C305">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D305" t="s">
         <v>81</v>
       </c>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>88</v>
+      </c>
+      <c r="B306" t="s">
+        <v>36</v>
+      </c>
       <c r="C306">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D306" t="s">
         <v>81</v>
       </c>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>88</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
       <c r="C307">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D307" t="s">
         <v>81</v>
       </c>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>88</v>
+      </c>
+      <c r="B308" t="s">
+        <v>86</v>
+      </c>
       <c r="C308">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D308" t="s">
         <v>81</v>
       </c>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>88</v>
+      </c>
+      <c r="B309" t="s">
+        <v>87</v>
+      </c>
       <c r="C309">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D309" t="s">
         <v>81</v>
       </c>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>89</v>
+      </c>
+      <c r="B310" t="s">
+        <v>83</v>
+      </c>
       <c r="C310">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D310" t="s">
         <v>81</v>
       </c>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>89</v>
+      </c>
+      <c r="B311" t="s">
+        <v>85</v>
+      </c>
       <c r="C311">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D311" t="s">
         <v>81</v>
       </c>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>89</v>
+      </c>
+      <c r="B312" t="s">
+        <v>36</v>
+      </c>
       <c r="C312">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D312" t="s">
         <v>81</v>
       </c>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>89</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
       <c r="C313">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D313" t="s">
         <v>81</v>
       </c>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>89</v>
+      </c>
+      <c r="B314" t="s">
+        <v>86</v>
+      </c>
       <c r="C314">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D314" t="s">
         <v>81</v>
       </c>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>91</v>
+      </c>
+      <c r="B315" t="s">
+        <v>87</v>
+      </c>
       <c r="C315">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D315" t="s">
         <v>81</v>
       </c>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>90</v>
+      </c>
+      <c r="B316" t="s">
+        <v>83</v>
+      </c>
       <c r="C316">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D316" t="s">
         <v>81</v>
       </c>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>90</v>
+      </c>
+      <c r="B317" t="s">
+        <v>85</v>
+      </c>
       <c r="C317">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D317" t="s">
         <v>81</v>
       </c>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>90</v>
+      </c>
+      <c r="B318" t="s">
+        <v>36</v>
+      </c>
       <c r="C318">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D318" t="s">
         <v>81</v>
       </c>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>90</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
       <c r="C319">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D319" t="s">
         <v>81</v>
       </c>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>90</v>
+      </c>
+      <c r="B320" t="s">
+        <v>86</v>
+      </c>
       <c r="C320">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D320" t="s">
         <v>81</v>
       </c>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>90</v>
+      </c>
+      <c r="B321" t="s">
+        <v>87</v>
+      </c>
       <c r="C321">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D321" t="s">
         <v>81</v>
       </c>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>92</v>
+      </c>
+      <c r="B322" t="s">
+        <v>83</v>
+      </c>
       <c r="C322">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D322" t="s">
         <v>81</v>
       </c>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>92</v>
+      </c>
+      <c r="B323" t="s">
+        <v>85</v>
+      </c>
       <c r="C323">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D323" t="s">
         <v>81</v>
       </c>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>92</v>
+      </c>
+      <c r="B324" t="s">
+        <v>36</v>
+      </c>
       <c r="C324">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D324" t="s">
         <v>81</v>
       </c>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>92</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
       <c r="C325">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D325" t="s">
         <v>81</v>
       </c>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>92</v>
+      </c>
+      <c r="B326" t="s">
+        <v>86</v>
+      </c>
       <c r="C326">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D326" t="s">
         <v>81</v>
       </c>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>92</v>
+      </c>
+      <c r="B327" t="s">
+        <v>93</v>
+      </c>
       <c r="C327">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D327" t="s">
         <v>81</v>
       </c>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>94</v>
+      </c>
+      <c r="B328" t="s">
+        <v>83</v>
+      </c>
       <c r="C328">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D328" t="s">
         <v>81</v>
       </c>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>94</v>
+      </c>
+      <c r="B329" t="s">
+        <v>85</v>
+      </c>
       <c r="C329">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D329" t="s">
         <v>81</v>
       </c>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>94</v>
+      </c>
+      <c r="B330" t="s">
+        <v>36</v>
+      </c>
       <c r="C330">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D330" t="s">
         <v>81</v>
       </c>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>94</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
       <c r="C331">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D331" t="s">
         <v>81</v>
       </c>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>94</v>
+      </c>
+      <c r="B332" t="s">
+        <v>86</v>
+      </c>
       <c r="C332">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D332" t="s">
         <v>81</v>
       </c>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>95</v>
+      </c>
+      <c r="B333" t="s">
+        <v>83</v>
+      </c>
       <c r="C333">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D333" t="s">
         <v>81</v>
       </c>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>95</v>
+      </c>
+      <c r="B334" t="s">
+        <v>85</v>
+      </c>
       <c r="C334">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D334" t="s">
         <v>81</v>
       </c>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>95</v>
+      </c>
+      <c r="B335" t="s">
+        <v>36</v>
+      </c>
       <c r="C335">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D335" t="s">
         <v>81</v>
       </c>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>95</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
       <c r="C336">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D336" t="s">
         <v>81</v>
       </c>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>95</v>
+      </c>
+      <c r="B337" t="s">
+        <v>86</v>
+      </c>
       <c r="C337">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D337" t="s">
         <v>81</v>
       </c>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>97</v>
+      </c>
+      <c r="B338" t="s">
+        <v>83</v>
+      </c>
       <c r="C338">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D338" t="s">
         <v>81</v>
       </c>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>97</v>
+      </c>
+      <c r="B339" t="s">
+        <v>85</v>
+      </c>
       <c r="C339">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D339" t="s">
         <v>81</v>
       </c>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>97</v>
+      </c>
+      <c r="B340" t="s">
+        <v>36</v>
+      </c>
       <c r="C340">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D340" t="s">
         <v>81</v>
       </c>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>97</v>
+      </c>
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
       <c r="C341">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D341" t="s">
         <v>81</v>
       </c>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>97</v>
+      </c>
+      <c r="B342" t="s">
+        <v>86</v>
+      </c>
       <c r="C342">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D342" t="s">
         <v>81</v>
       </c>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>98</v>
+      </c>
+      <c r="B343" t="s">
+        <v>83</v>
+      </c>
       <c r="C343">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D343" t="s">
         <v>81</v>
       </c>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>98</v>
+      </c>
+      <c r="B344" t="s">
+        <v>85</v>
+      </c>
       <c r="C344">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D344" t="s">
         <v>81</v>
       </c>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>98</v>
+      </c>
+      <c r="B345" t="s">
+        <v>36</v>
+      </c>
       <c r="C345">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D345" t="s">
         <v>81</v>
       </c>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>98</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
       <c r="C346">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D346" t="s">
         <v>81</v>
       </c>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>98</v>
+      </c>
+      <c r="B347" t="s">
+        <v>86</v>
+      </c>
       <c r="C347">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D347" t="s">
         <v>81</v>
       </c>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>99</v>
+      </c>
+      <c r="B348" t="s">
+        <v>83</v>
+      </c>
       <c r="C348">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D348" t="s">
         <v>81</v>
       </c>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>99</v>
+      </c>
+      <c r="B349" t="s">
+        <v>85</v>
+      </c>
       <c r="C349">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D349" t="s">
         <v>81</v>
       </c>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>99</v>
+      </c>
+      <c r="B350" t="s">
+        <v>36</v>
+      </c>
       <c r="C350">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D350" t="s">
         <v>81</v>
       </c>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>99</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
       <c r="C351">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D351" t="s">
         <v>81</v>
       </c>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>99</v>
+      </c>
+      <c r="B352" t="s">
+        <v>86</v>
+      </c>
       <c r="C352">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D352" t="s">
         <v>81</v>
       </c>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>100</v>
+      </c>
+      <c r="B353" t="s">
+        <v>83</v>
+      </c>
       <c r="C353">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D353" t="s">
         <v>81</v>
       </c>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>100</v>
+      </c>
+      <c r="B354" t="s">
+        <v>85</v>
+      </c>
       <c r="C354">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D354" t="s">
         <v>81</v>
       </c>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>100</v>
+      </c>
+      <c r="B355" t="s">
+        <v>36</v>
+      </c>
       <c r="C355">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D355" t="s">
         <v>81</v>
       </c>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>100</v>
+      </c>
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
       <c r="C356">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D356" t="s">
         <v>81</v>
       </c>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>100</v>
+      </c>
+      <c r="B357" t="s">
+        <v>86</v>
+      </c>
       <c r="C357">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D357" t="s">
         <v>81</v>
       </c>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>101</v>
+      </c>
+      <c r="B358" t="s">
+        <v>83</v>
+      </c>
       <c r="C358">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D358" t="s">
         <v>81</v>
       </c>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>101</v>
+      </c>
+      <c r="B359" t="s">
+        <v>85</v>
+      </c>
       <c r="C359">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D359" t="s">
         <v>81</v>
       </c>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>101</v>
+      </c>
+      <c r="B360" t="s">
+        <v>36</v>
+      </c>
       <c r="C360">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D360" t="s">
         <v>81</v>
       </c>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>101</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
       <c r="C361">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D361" t="s">
         <v>81</v>
       </c>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>101</v>
+      </c>
+      <c r="B362" t="s">
+        <v>86</v>
+      </c>
       <c r="C362">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D362" t="s">
         <v>81</v>
       </c>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>102</v>
+      </c>
+      <c r="B363" t="s">
+        <v>83</v>
+      </c>
       <c r="C363">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D363" t="s">
         <v>81</v>
       </c>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>102</v>
+      </c>
+      <c r="B364" t="s">
+        <v>85</v>
+      </c>
       <c r="C364">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D364" t="s">
         <v>81</v>
       </c>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>102</v>
+      </c>
+      <c r="B365" t="s">
+        <v>36</v>
+      </c>
       <c r="C365">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D365" t="s">
         <v>81</v>
       </c>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>102</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
       <c r="C366">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D366" t="s">
         <v>81</v>
       </c>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>102</v>
+      </c>
+      <c r="B367" t="s">
+        <v>86</v>
+      </c>
       <c r="C367">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D367" t="s">
         <v>81</v>
       </c>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>103</v>
+      </c>
+      <c r="B368" t="s">
+        <v>83</v>
+      </c>
       <c r="C368">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D368" t="s">
         <v>81</v>
       </c>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>103</v>
+      </c>
+      <c r="B369" t="s">
+        <v>85</v>
+      </c>
       <c r="C369">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D369" t="s">
         <v>81</v>
       </c>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>103</v>
+      </c>
+      <c r="B370" t="s">
+        <v>36</v>
+      </c>
       <c r="C370">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D370" t="s">
         <v>81</v>
       </c>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>103</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
       <c r="C371">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D371" t="s">
         <v>81</v>
       </c>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>103</v>
+      </c>
+      <c r="B372" t="s">
+        <v>86</v>
+      </c>
       <c r="C372">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D372" t="s">
         <v>81</v>
       </c>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>104</v>
+      </c>
+      <c r="B373" t="s">
+        <v>83</v>
+      </c>
       <c r="C373">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D373" t="s">
         <v>81</v>
       </c>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>104</v>
+      </c>
+      <c r="B374" t="s">
+        <v>85</v>
+      </c>
       <c r="C374">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D374" t="s">
         <v>81</v>
       </c>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>104</v>
+      </c>
+      <c r="B375" t="s">
+        <v>36</v>
+      </c>
       <c r="C375">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D375" t="s">
         <v>81</v>
       </c>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>104</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
       <c r="C376">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D376" t="s">
         <v>81</v>
       </c>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>104</v>
+      </c>
+      <c r="B377" t="s">
+        <v>86</v>
+      </c>
       <c r="C377">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D377" t="s">
         <v>81</v>
       </c>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>105</v>
+      </c>
+      <c r="B378" t="s">
+        <v>83</v>
+      </c>
       <c r="C378">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D378" t="s">
         <v>81</v>
       </c>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>105</v>
+      </c>
+      <c r="B379" t="s">
+        <v>85</v>
+      </c>
       <c r="C379">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D379" t="s">
         <v>81</v>
       </c>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>105</v>
+      </c>
+      <c r="B380" t="s">
+        <v>36</v>
+      </c>
       <c r="C380">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D380" t="s">
         <v>81</v>
       </c>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>105</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
       <c r="C381">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D381" t="s">
         <v>81</v>
       </c>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>105</v>
+      </c>
+      <c r="B382" t="s">
+        <v>86</v>
+      </c>
       <c r="C382">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D382" t="s">
         <v>81</v>
       </c>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>96</v>
+      </c>
+      <c r="B383" t="s">
+        <v>83</v>
+      </c>
       <c r="C383">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D383" t="s">
         <v>81</v>
       </c>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>96</v>
+      </c>
+      <c r="B384" t="s">
+        <v>85</v>
+      </c>
       <c r="C384">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D384" t="s">
         <v>81</v>
       </c>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>96</v>
+      </c>
+      <c r="B385" t="s">
+        <v>36</v>
+      </c>
       <c r="C385">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D385" t="s">
         <v>81</v>
       </c>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>96</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
       <c r="C386">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D386" t="s">
         <v>81</v>
       </c>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>96</v>
+      </c>
+      <c r="B387" t="s">
+        <v>86</v>
+      </c>
       <c r="C387">
-        <v>10024</v>
+        <v>10023</v>
       </c>
       <c r="D387" t="s">
         <v>81</v>
       </c>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>106</v>
+      </c>
+      <c r="B388" t="s">
+        <v>83</v>
+      </c>
       <c r="C388">
         <v>10024</v>
       </c>
@@ -5618,7 +6356,13 @@
       </c>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>106</v>
+      </c>
+      <c r="B389" t="s">
+        <v>85</v>
+      </c>
       <c r="C389">
         <v>10024</v>
       </c>
@@ -5627,7 +6371,13 @@
       </c>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>106</v>
+      </c>
+      <c r="B390" t="s">
+        <v>36</v>
+      </c>
       <c r="C390">
         <v>10024</v>
       </c>
@@ -5636,7 +6386,13 @@
       </c>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>106</v>
+      </c>
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
       <c r="C391">
         <v>10024</v>
       </c>
@@ -5645,7 +6401,13 @@
       </c>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>106</v>
+      </c>
+      <c r="B392" t="s">
+        <v>86</v>
+      </c>
       <c r="C392">
         <v>10024</v>
       </c>
@@ -5654,7 +6416,13 @@
       </c>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>106</v>
+      </c>
+      <c r="B393" t="s">
+        <v>87</v>
+      </c>
       <c r="C393">
         <v>10024</v>
       </c>
@@ -5663,7 +6431,13 @@
       </c>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>107</v>
+      </c>
+      <c r="B394" t="s">
+        <v>83</v>
+      </c>
       <c r="C394">
         <v>10024</v>
       </c>
@@ -5672,7 +6446,13 @@
       </c>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>107</v>
+      </c>
+      <c r="B395" t="s">
+        <v>85</v>
+      </c>
       <c r="C395">
         <v>10024</v>
       </c>
@@ -5681,7 +6461,13 @@
       </c>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>107</v>
+      </c>
+      <c r="B396" t="s">
+        <v>36</v>
+      </c>
       <c r="C396">
         <v>10024</v>
       </c>
@@ -5690,7 +6476,13 @@
       </c>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>107</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
       <c r="C397">
         <v>10024</v>
       </c>
@@ -5699,7 +6491,13 @@
       </c>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>107</v>
+      </c>
+      <c r="B398" t="s">
+        <v>86</v>
+      </c>
       <c r="C398">
         <v>10024</v>
       </c>
@@ -5708,7 +6506,13 @@
       </c>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>107</v>
+      </c>
+      <c r="B399" t="s">
+        <v>87</v>
+      </c>
       <c r="C399">
         <v>10024</v>
       </c>
@@ -5717,7 +6521,13 @@
       </c>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>108</v>
+      </c>
+      <c r="B400" t="s">
+        <v>83</v>
+      </c>
       <c r="C400">
         <v>10024</v>
       </c>
@@ -5726,7 +6536,13 @@
       </c>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>108</v>
+      </c>
+      <c r="B401" t="s">
+        <v>85</v>
+      </c>
       <c r="C401">
         <v>10024</v>
       </c>
@@ -5735,7 +6551,13 @@
       </c>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>108</v>
+      </c>
+      <c r="B402" t="s">
+        <v>36</v>
+      </c>
       <c r="C402">
         <v>10024</v>
       </c>
@@ -5744,7 +6566,13 @@
       </c>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>108</v>
+      </c>
+      <c r="B403" t="s">
+        <v>0</v>
+      </c>
       <c r="C403">
         <v>10024</v>
       </c>
@@ -5753,7 +6581,13 @@
       </c>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>108</v>
+      </c>
+      <c r="B404" t="s">
+        <v>86</v>
+      </c>
       <c r="C404">
         <v>10024</v>
       </c>
@@ -5762,7 +6596,13 @@
       </c>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>108</v>
+      </c>
+      <c r="B405" t="s">
+        <v>87</v>
+      </c>
       <c r="C405">
         <v>10024</v>
       </c>
@@ -5771,314 +6611,3162 @@
       </c>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>109</v>
+      </c>
+      <c r="B406" t="s">
+        <v>83</v>
+      </c>
+      <c r="C406">
+        <v>10024</v>
+      </c>
+      <c r="D406" t="s">
+        <v>81</v>
+      </c>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>109</v>
+      </c>
+      <c r="B407" t="s">
+        <v>85</v>
+      </c>
+      <c r="C407">
+        <v>10024</v>
+      </c>
+      <c r="D407" t="s">
+        <v>81</v>
+      </c>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>109</v>
+      </c>
+      <c r="B408" t="s">
+        <v>36</v>
+      </c>
+      <c r="C408">
+        <v>10024</v>
+      </c>
+      <c r="D408" t="s">
+        <v>81</v>
+      </c>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>109</v>
+      </c>
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>10024</v>
+      </c>
+      <c r="D409" t="s">
+        <v>81</v>
+      </c>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>109</v>
+      </c>
+      <c r="B410" t="s">
+        <v>86</v>
+      </c>
+      <c r="C410">
+        <v>10024</v>
+      </c>
+      <c r="D410" t="s">
+        <v>81</v>
+      </c>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>109</v>
+      </c>
+      <c r="B411" t="s">
+        <v>87</v>
+      </c>
+      <c r="C411">
+        <v>10024</v>
+      </c>
+      <c r="D411" t="s">
+        <v>81</v>
+      </c>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>110</v>
+      </c>
+      <c r="B412" t="s">
+        <v>83</v>
+      </c>
+      <c r="C412">
+        <v>10024</v>
+      </c>
+      <c r="D412" t="s">
+        <v>81</v>
+      </c>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>110</v>
+      </c>
+      <c r="B413" t="s">
+        <v>85</v>
+      </c>
+      <c r="C413">
+        <v>10024</v>
+      </c>
+      <c r="D413" t="s">
+        <v>81</v>
+      </c>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>110</v>
+      </c>
+      <c r="B414" t="s">
+        <v>36</v>
+      </c>
+      <c r="C414">
+        <v>10024</v>
+      </c>
+      <c r="D414" t="s">
+        <v>81</v>
+      </c>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>110</v>
+      </c>
+      <c r="B415" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415">
+        <v>10024</v>
+      </c>
+      <c r="D415" t="s">
+        <v>81</v>
+      </c>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>110</v>
+      </c>
+      <c r="B416" t="s">
+        <v>86</v>
+      </c>
+      <c r="C416">
+        <v>10024</v>
+      </c>
+      <c r="D416" t="s">
+        <v>81</v>
+      </c>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>110</v>
+      </c>
+      <c r="B417" t="s">
+        <v>87</v>
+      </c>
+      <c r="C417">
+        <v>10024</v>
+      </c>
+      <c r="D417" t="s">
+        <v>81</v>
+      </c>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>111</v>
+      </c>
+      <c r="B418" t="s">
+        <v>83</v>
+      </c>
+      <c r="C418">
+        <v>10024</v>
+      </c>
+      <c r="D418" t="s">
+        <v>81</v>
+      </c>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>111</v>
+      </c>
+      <c r="B419" t="s">
+        <v>85</v>
+      </c>
+      <c r="C419">
+        <v>10024</v>
+      </c>
+      <c r="D419" t="s">
+        <v>81</v>
+      </c>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>111</v>
+      </c>
+      <c r="B420" t="s">
+        <v>36</v>
+      </c>
+      <c r="C420">
+        <v>10024</v>
+      </c>
+      <c r="D420" t="s">
+        <v>81</v>
+      </c>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>111</v>
+      </c>
+      <c r="B421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421">
+        <v>10024</v>
+      </c>
+      <c r="D421" t="s">
+        <v>81</v>
+      </c>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>111</v>
+      </c>
+      <c r="B422" t="s">
+        <v>86</v>
+      </c>
+      <c r="C422">
+        <v>10024</v>
+      </c>
+      <c r="D422" t="s">
+        <v>81</v>
+      </c>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>111</v>
+      </c>
+      <c r="B423" t="s">
+        <v>87</v>
+      </c>
+      <c r="C423">
+        <v>10024</v>
+      </c>
+      <c r="D423" t="s">
+        <v>81</v>
+      </c>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>112</v>
+      </c>
+      <c r="B424" t="s">
+        <v>83</v>
+      </c>
+      <c r="C424">
+        <v>10024</v>
+      </c>
+      <c r="D424" t="s">
+        <v>81</v>
+      </c>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>112</v>
+      </c>
+      <c r="B425" t="s">
+        <v>85</v>
+      </c>
+      <c r="C425">
+        <v>10024</v>
+      </c>
+      <c r="D425" t="s">
+        <v>81</v>
+      </c>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>112</v>
+      </c>
+      <c r="B426" t="s">
+        <v>36</v>
+      </c>
+      <c r="C426">
+        <v>10024</v>
+      </c>
+      <c r="D426" t="s">
+        <v>81</v>
+      </c>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>112</v>
+      </c>
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427">
+        <v>10024</v>
+      </c>
+      <c r="D427" t="s">
+        <v>81</v>
+      </c>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>112</v>
+      </c>
+      <c r="B428" t="s">
+        <v>86</v>
+      </c>
+      <c r="C428">
+        <v>10024</v>
+      </c>
+      <c r="D428" t="s">
+        <v>81</v>
+      </c>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>112</v>
+      </c>
+      <c r="B429" t="s">
+        <v>87</v>
+      </c>
+      <c r="C429">
+        <v>10024</v>
+      </c>
+      <c r="D429" t="s">
+        <v>81</v>
+      </c>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>113</v>
+      </c>
+      <c r="B430" t="s">
+        <v>83</v>
+      </c>
+      <c r="C430">
+        <v>10024</v>
+      </c>
+      <c r="D430" t="s">
+        <v>81</v>
+      </c>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>113</v>
+      </c>
+      <c r="B431" t="s">
+        <v>85</v>
+      </c>
+      <c r="C431">
+        <v>10024</v>
+      </c>
+      <c r="D431" t="s">
+        <v>81</v>
+      </c>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>113</v>
+      </c>
+      <c r="B432" t="s">
+        <v>36</v>
+      </c>
+      <c r="C432">
+        <v>10024</v>
+      </c>
+      <c r="D432" t="s">
+        <v>81</v>
+      </c>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>113</v>
+      </c>
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>10024</v>
+      </c>
+      <c r="D433" t="s">
+        <v>81</v>
+      </c>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>113</v>
+      </c>
+      <c r="B434" t="s">
+        <v>86</v>
+      </c>
+      <c r="C434">
+        <v>10024</v>
+      </c>
+      <c r="D434" t="s">
+        <v>81</v>
+      </c>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>113</v>
+      </c>
+      <c r="B435" t="s">
+        <v>87</v>
+      </c>
+      <c r="C435">
+        <v>10024</v>
+      </c>
+      <c r="D435" t="s">
+        <v>81</v>
+      </c>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>114</v>
+      </c>
+      <c r="B436" t="s">
+        <v>83</v>
+      </c>
+      <c r="C436">
+        <v>10024</v>
+      </c>
+      <c r="D436" t="s">
+        <v>81</v>
+      </c>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>114</v>
+      </c>
+      <c r="B437" t="s">
+        <v>85</v>
+      </c>
+      <c r="C437">
+        <v>10024</v>
+      </c>
+      <c r="D437" t="s">
+        <v>81</v>
+      </c>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>114</v>
+      </c>
+      <c r="B438" t="s">
+        <v>36</v>
+      </c>
+      <c r="C438">
+        <v>10024</v>
+      </c>
+      <c r="D438" t="s">
+        <v>81</v>
+      </c>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>114</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>10024</v>
+      </c>
+      <c r="D439" t="s">
+        <v>81</v>
+      </c>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>114</v>
+      </c>
+      <c r="B440" t="s">
+        <v>86</v>
+      </c>
+      <c r="C440">
+        <v>10024</v>
+      </c>
+      <c r="D440" t="s">
+        <v>81</v>
+      </c>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>114</v>
+      </c>
+      <c r="B441" t="s">
+        <v>87</v>
+      </c>
+      <c r="C441">
+        <v>10024</v>
+      </c>
+      <c r="D441" t="s">
+        <v>81</v>
+      </c>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>115</v>
+      </c>
+      <c r="B442" t="s">
+        <v>83</v>
+      </c>
+      <c r="C442">
+        <v>10024</v>
+      </c>
+      <c r="D442" t="s">
+        <v>81</v>
+      </c>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>115</v>
+      </c>
+      <c r="B443" t="s">
+        <v>85</v>
+      </c>
+      <c r="C443">
+        <v>10024</v>
+      </c>
+      <c r="D443" t="s">
+        <v>81</v>
+      </c>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>115</v>
+      </c>
+      <c r="B444" t="s">
+        <v>36</v>
+      </c>
+      <c r="C444">
+        <v>10024</v>
+      </c>
+      <c r="D444" t="s">
+        <v>81</v>
+      </c>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>115</v>
+      </c>
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445">
+        <v>10024</v>
+      </c>
+      <c r="D445" t="s">
+        <v>81</v>
+      </c>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>115</v>
+      </c>
+      <c r="B446" t="s">
+        <v>86</v>
+      </c>
+      <c r="C446">
+        <v>10024</v>
+      </c>
+      <c r="D446" t="s">
+        <v>81</v>
+      </c>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>115</v>
+      </c>
+      <c r="B447" t="s">
+        <v>87</v>
+      </c>
+      <c r="C447">
+        <v>10024</v>
+      </c>
+      <c r="D447" t="s">
+        <v>81</v>
+      </c>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>116</v>
+      </c>
+      <c r="B448" t="s">
+        <v>83</v>
+      </c>
+      <c r="C448">
+        <v>10024</v>
+      </c>
+      <c r="D448" t="s">
+        <v>81</v>
+      </c>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>116</v>
+      </c>
+      <c r="B449" t="s">
+        <v>85</v>
+      </c>
+      <c r="C449">
+        <v>10024</v>
+      </c>
+      <c r="D449" t="s">
+        <v>81</v>
+      </c>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>116</v>
+      </c>
+      <c r="B450" t="s">
+        <v>36</v>
+      </c>
+      <c r="C450">
+        <v>10024</v>
+      </c>
+      <c r="D450" t="s">
+        <v>81</v>
+      </c>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>116</v>
+      </c>
+      <c r="B451" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>10024</v>
+      </c>
+      <c r="D451" t="s">
+        <v>81</v>
+      </c>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>116</v>
+      </c>
+      <c r="B452" t="s">
+        <v>86</v>
+      </c>
+      <c r="C452">
+        <v>10024</v>
+      </c>
+      <c r="D452" t="s">
+        <v>81</v>
+      </c>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>116</v>
+      </c>
+      <c r="B453" t="s">
+        <v>87</v>
+      </c>
+      <c r="C453">
+        <v>10024</v>
+      </c>
+      <c r="D453" t="s">
+        <v>81</v>
+      </c>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>117</v>
+      </c>
+      <c r="B454" t="s">
+        <v>83</v>
+      </c>
+      <c r="C454">
+        <v>10024</v>
+      </c>
+      <c r="D454" t="s">
+        <v>81</v>
+      </c>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>117</v>
+      </c>
+      <c r="B455" t="s">
+        <v>85</v>
+      </c>
+      <c r="C455">
+        <v>10024</v>
+      </c>
+      <c r="D455" t="s">
+        <v>81</v>
+      </c>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>117</v>
+      </c>
+      <c r="B456" t="s">
+        <v>36</v>
+      </c>
+      <c r="C456">
+        <v>10024</v>
+      </c>
+      <c r="D456" t="s">
+        <v>81</v>
+      </c>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>117</v>
+      </c>
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>10024</v>
+      </c>
+      <c r="D457" t="s">
+        <v>81</v>
+      </c>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>117</v>
+      </c>
+      <c r="B458" t="s">
+        <v>86</v>
+      </c>
+      <c r="C458">
+        <v>10024</v>
+      </c>
+      <c r="D458" t="s">
+        <v>81</v>
+      </c>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>117</v>
+      </c>
+      <c r="B459" t="s">
+        <v>87</v>
+      </c>
+      <c r="C459">
+        <v>10024</v>
+      </c>
+      <c r="D459" t="s">
+        <v>81</v>
+      </c>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>118</v>
+      </c>
+      <c r="B460" t="s">
+        <v>83</v>
+      </c>
+      <c r="C460">
+        <v>10024</v>
+      </c>
+      <c r="D460" t="s">
+        <v>81</v>
+      </c>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>118</v>
+      </c>
+      <c r="B461" t="s">
+        <v>85</v>
+      </c>
+      <c r="C461">
+        <v>10024</v>
+      </c>
+      <c r="D461" t="s">
+        <v>81</v>
+      </c>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>118</v>
+      </c>
+      <c r="B462" t="s">
+        <v>36</v>
+      </c>
+      <c r="C462">
+        <v>10024</v>
+      </c>
+      <c r="D462" t="s">
+        <v>81</v>
+      </c>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>118</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>10024</v>
+      </c>
+      <c r="D463" t="s">
+        <v>81</v>
+      </c>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>118</v>
+      </c>
+      <c r="B464" t="s">
+        <v>86</v>
+      </c>
+      <c r="C464">
+        <v>10024</v>
+      </c>
+      <c r="D464" t="s">
+        <v>81</v>
+      </c>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>118</v>
+      </c>
+      <c r="B465" t="s">
+        <v>87</v>
+      </c>
+      <c r="C465">
+        <v>10024</v>
+      </c>
+      <c r="D465" t="s">
+        <v>81</v>
+      </c>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>119</v>
+      </c>
+      <c r="B466" t="s">
+        <v>83</v>
+      </c>
+      <c r="C466">
+        <v>10024</v>
+      </c>
+      <c r="D466" t="s">
+        <v>81</v>
+      </c>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>119</v>
+      </c>
+      <c r="B467" t="s">
+        <v>85</v>
+      </c>
+      <c r="C467">
+        <v>10024</v>
+      </c>
+      <c r="D467" t="s">
+        <v>81</v>
+      </c>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>119</v>
+      </c>
+      <c r="B468" t="s">
+        <v>36</v>
+      </c>
+      <c r="C468">
+        <v>10024</v>
+      </c>
+      <c r="D468" t="s">
+        <v>81</v>
+      </c>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>119</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469">
+        <v>10024</v>
+      </c>
+      <c r="D469" t="s">
+        <v>81</v>
+      </c>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>119</v>
+      </c>
+      <c r="B470" t="s">
+        <v>86</v>
+      </c>
+      <c r="C470">
+        <v>10024</v>
+      </c>
+      <c r="D470" t="s">
+        <v>81</v>
+      </c>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>119</v>
+      </c>
+      <c r="B471" t="s">
+        <v>87</v>
+      </c>
+      <c r="C471">
+        <v>10024</v>
+      </c>
+      <c r="D471" t="s">
+        <v>81</v>
+      </c>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>120</v>
+      </c>
+      <c r="B472" t="s">
+        <v>83</v>
+      </c>
+      <c r="C472">
+        <v>10024</v>
+      </c>
+      <c r="D472" t="s">
+        <v>81</v>
+      </c>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>120</v>
+      </c>
+      <c r="B473" t="s">
+        <v>85</v>
+      </c>
+      <c r="C473">
+        <v>10024</v>
+      </c>
+      <c r="D473" t="s">
+        <v>81</v>
+      </c>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>120</v>
+      </c>
+      <c r="B474" t="s">
+        <v>36</v>
+      </c>
+      <c r="C474">
+        <v>10024</v>
+      </c>
+      <c r="D474" t="s">
+        <v>81</v>
+      </c>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>120</v>
+      </c>
+      <c r="B475" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>10024</v>
+      </c>
+      <c r="D475" t="s">
+        <v>81</v>
+      </c>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>120</v>
+      </c>
+      <c r="B476" t="s">
+        <v>86</v>
+      </c>
+      <c r="C476">
+        <v>10024</v>
+      </c>
+      <c r="D476" t="s">
+        <v>81</v>
+      </c>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>120</v>
+      </c>
+      <c r="B477" t="s">
+        <v>87</v>
+      </c>
+      <c r="C477">
+        <v>10024</v>
+      </c>
+      <c r="D477" t="s">
+        <v>81</v>
+      </c>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>84</v>
+      </c>
+      <c r="B478" t="s">
+        <v>83</v>
+      </c>
+      <c r="C478">
+        <v>10024</v>
+      </c>
+      <c r="D478" t="s">
+        <v>81</v>
+      </c>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>84</v>
+      </c>
+      <c r="B479" t="s">
+        <v>85</v>
+      </c>
+      <c r="C479">
+        <v>10024</v>
+      </c>
+      <c r="D479" t="s">
+        <v>81</v>
+      </c>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>84</v>
+      </c>
+      <c r="B480" t="s">
+        <v>36</v>
+      </c>
+      <c r="C480">
+        <v>10024</v>
+      </c>
+      <c r="D480" t="s">
+        <v>81</v>
+      </c>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>84</v>
+      </c>
+      <c r="B481" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481">
+        <v>10024</v>
+      </c>
+      <c r="D481" t="s">
+        <v>81</v>
+      </c>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>84</v>
+      </c>
+      <c r="B482" t="s">
+        <v>86</v>
+      </c>
+      <c r="C482">
+        <v>10024</v>
+      </c>
+      <c r="D482" t="s">
+        <v>81</v>
+      </c>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>84</v>
+      </c>
+      <c r="B483" t="s">
+        <v>87</v>
+      </c>
+      <c r="C483">
+        <v>10024</v>
+      </c>
+      <c r="D483" t="s">
+        <v>81</v>
+      </c>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>121</v>
+      </c>
+      <c r="B484" t="s">
+        <v>85</v>
+      </c>
+      <c r="C484">
+        <v>10025</v>
+      </c>
+      <c r="D484" t="s">
+        <v>81</v>
+      </c>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>121</v>
+      </c>
+      <c r="B485" t="s">
+        <v>36</v>
+      </c>
+      <c r="C485">
+        <v>10025</v>
+      </c>
+      <c r="D485" t="s">
+        <v>81</v>
+      </c>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>121</v>
+      </c>
+      <c r="B486" t="s">
+        <v>86</v>
+      </c>
+      <c r="C486">
+        <v>10025</v>
+      </c>
+      <c r="D486" t="s">
+        <v>81</v>
+      </c>
       <c r="O486" s="3"/>
     </row>
-    <row r="487" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>121</v>
+      </c>
+      <c r="B487" t="s">
+        <v>87</v>
+      </c>
+      <c r="C487">
+        <v>10025</v>
+      </c>
+      <c r="D487" t="s">
+        <v>81</v>
+      </c>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>122</v>
+      </c>
+      <c r="B488" t="s">
+        <v>85</v>
+      </c>
+      <c r="C488">
+        <v>10025</v>
+      </c>
+      <c r="D488" t="s">
+        <v>81</v>
+      </c>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>122</v>
+      </c>
+      <c r="B489" t="s">
+        <v>36</v>
+      </c>
+      <c r="C489">
+        <v>10025</v>
+      </c>
+      <c r="D489" t="s">
+        <v>81</v>
+      </c>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>122</v>
+      </c>
+      <c r="B490" t="s">
+        <v>86</v>
+      </c>
+      <c r="C490">
+        <v>10025</v>
+      </c>
+      <c r="D490" t="s">
+        <v>81</v>
+      </c>
       <c r="O490" s="3"/>
     </row>
-    <row r="491" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>122</v>
+      </c>
+      <c r="B491" t="s">
+        <v>87</v>
+      </c>
+      <c r="C491">
+        <v>10025</v>
+      </c>
+      <c r="D491" t="s">
+        <v>81</v>
+      </c>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>123</v>
+      </c>
+      <c r="B492" t="s">
+        <v>85</v>
+      </c>
+      <c r="C492">
+        <v>10025</v>
+      </c>
+      <c r="D492" t="s">
+        <v>81</v>
+      </c>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>123</v>
+      </c>
+      <c r="B493" t="s">
+        <v>36</v>
+      </c>
+      <c r="C493">
+        <v>10025</v>
+      </c>
+      <c r="D493" t="s">
+        <v>81</v>
+      </c>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>123</v>
+      </c>
+      <c r="B494" t="s">
+        <v>86</v>
+      </c>
+      <c r="C494">
+        <v>10025</v>
+      </c>
+      <c r="D494" t="s">
+        <v>81</v>
+      </c>
       <c r="O494" s="3"/>
     </row>
-    <row r="495" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>123</v>
+      </c>
+      <c r="B495" t="s">
+        <v>87</v>
+      </c>
+      <c r="C495">
+        <v>10025</v>
+      </c>
+      <c r="D495" t="s">
+        <v>81</v>
+      </c>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>124</v>
+      </c>
+      <c r="B496" t="s">
+        <v>85</v>
+      </c>
+      <c r="C496">
+        <v>10025</v>
+      </c>
+      <c r="D496" t="s">
+        <v>81</v>
+      </c>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>124</v>
+      </c>
+      <c r="B497" t="s">
+        <v>36</v>
+      </c>
+      <c r="C497">
+        <v>10025</v>
+      </c>
+      <c r="D497" t="s">
+        <v>81</v>
+      </c>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>124</v>
+      </c>
+      <c r="B498" t="s">
+        <v>86</v>
+      </c>
+      <c r="C498">
+        <v>10025</v>
+      </c>
+      <c r="D498" t="s">
+        <v>81</v>
+      </c>
       <c r="O498" s="3"/>
     </row>
-    <row r="499" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>124</v>
+      </c>
+      <c r="B499" t="s">
+        <v>87</v>
+      </c>
+      <c r="C499">
+        <v>10025</v>
+      </c>
+      <c r="D499" t="s">
+        <v>81</v>
+      </c>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>125</v>
+      </c>
+      <c r="B500" t="s">
+        <v>85</v>
+      </c>
+      <c r="C500">
+        <v>10025</v>
+      </c>
+      <c r="D500" t="s">
+        <v>81</v>
+      </c>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>125</v>
+      </c>
+      <c r="B501" t="s">
+        <v>36</v>
+      </c>
+      <c r="C501">
+        <v>10025</v>
+      </c>
+      <c r="D501" t="s">
+        <v>81</v>
+      </c>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>125</v>
+      </c>
+      <c r="B502" t="s">
+        <v>86</v>
+      </c>
+      <c r="C502">
+        <v>10025</v>
+      </c>
+      <c r="D502" t="s">
+        <v>81</v>
+      </c>
       <c r="O502" s="3"/>
     </row>
-    <row r="503" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>125</v>
+      </c>
+      <c r="B503" t="s">
+        <v>87</v>
+      </c>
+      <c r="C503">
+        <v>10025</v>
+      </c>
+      <c r="D503" t="s">
+        <v>81</v>
+      </c>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>126</v>
+      </c>
+      <c r="B504" t="s">
+        <v>127</v>
+      </c>
+      <c r="C504">
+        <v>10025</v>
+      </c>
+      <c r="D504" t="s">
+        <v>81</v>
+      </c>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>126</v>
+      </c>
+      <c r="B505" t="s">
+        <v>85</v>
+      </c>
+      <c r="C505">
+        <v>10025</v>
+      </c>
+      <c r="D505" t="s">
+        <v>81</v>
+      </c>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>126</v>
+      </c>
+      <c r="B506" t="s">
+        <v>36</v>
+      </c>
+      <c r="C506">
+        <v>10025</v>
+      </c>
+      <c r="D506" t="s">
+        <v>81</v>
+      </c>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>126</v>
+      </c>
+      <c r="B507" t="s">
+        <v>86</v>
+      </c>
+      <c r="C507">
+        <v>10025</v>
+      </c>
+      <c r="D507" t="s">
+        <v>81</v>
+      </c>
       <c r="O507" s="3"/>
     </row>
-    <row r="508" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>126</v>
+      </c>
+      <c r="B508" t="s">
+        <v>87</v>
+      </c>
+      <c r="C508">
+        <v>10025</v>
+      </c>
+      <c r="D508" t="s">
+        <v>81</v>
+      </c>
       <c r="O508" s="3"/>
+    </row>
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>128</v>
+      </c>
+      <c r="B509" t="s">
+        <v>83</v>
+      </c>
+      <c r="C509">
+        <v>10025</v>
+      </c>
+      <c r="D509" t="s">
+        <v>81</v>
+      </c>
+      <c r="O509" s="3"/>
+    </row>
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>128</v>
+      </c>
+      <c r="B510" t="s">
+        <v>127</v>
+      </c>
+      <c r="C510">
+        <v>10025</v>
+      </c>
+      <c r="D510" t="s">
+        <v>81</v>
+      </c>
+      <c r="O510" s="3"/>
+    </row>
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>128</v>
+      </c>
+      <c r="B511" t="s">
+        <v>85</v>
+      </c>
+      <c r="C511">
+        <v>10025</v>
+      </c>
+      <c r="D511" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>128</v>
+      </c>
+      <c r="B512" t="s">
+        <v>36</v>
+      </c>
+      <c r="C512">
+        <v>10025</v>
+      </c>
+      <c r="D512" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>128</v>
+      </c>
+      <c r="B513" t="s">
+        <v>86</v>
+      </c>
+      <c r="C513">
+        <v>10025</v>
+      </c>
+      <c r="D513" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>128</v>
+      </c>
+      <c r="B514" t="s">
+        <v>87</v>
+      </c>
+      <c r="C514">
+        <v>10025</v>
+      </c>
+      <c r="D514" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>129</v>
+      </c>
+      <c r="B515" t="s">
+        <v>83</v>
+      </c>
+      <c r="C515">
+        <v>10025</v>
+      </c>
+      <c r="D515" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>129</v>
+      </c>
+      <c r="B516" t="s">
+        <v>127</v>
+      </c>
+      <c r="C516">
+        <v>10025</v>
+      </c>
+      <c r="D516" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>129</v>
+      </c>
+      <c r="B517" t="s">
+        <v>85</v>
+      </c>
+      <c r="C517">
+        <v>10025</v>
+      </c>
+      <c r="D517" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>129</v>
+      </c>
+      <c r="B518" t="s">
+        <v>36</v>
+      </c>
+      <c r="C518">
+        <v>10025</v>
+      </c>
+      <c r="D518" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>129</v>
+      </c>
+      <c r="B519" t="s">
+        <v>86</v>
+      </c>
+      <c r="C519">
+        <v>10025</v>
+      </c>
+      <c r="D519" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>129</v>
+      </c>
+      <c r="B520" t="s">
+        <v>87</v>
+      </c>
+      <c r="C520">
+        <v>10025</v>
+      </c>
+      <c r="D520" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>130</v>
+      </c>
+      <c r="B521" t="s">
+        <v>83</v>
+      </c>
+      <c r="C521">
+        <v>10025</v>
+      </c>
+      <c r="D521" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>130</v>
+      </c>
+      <c r="B522" t="s">
+        <v>127</v>
+      </c>
+      <c r="C522">
+        <v>10025</v>
+      </c>
+      <c r="D522" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>130</v>
+      </c>
+      <c r="B523" t="s">
+        <v>85</v>
+      </c>
+      <c r="C523">
+        <v>10025</v>
+      </c>
+      <c r="D523" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>130</v>
+      </c>
+      <c r="B524" t="s">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>10025</v>
+      </c>
+      <c r="D524" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>130</v>
+      </c>
+      <c r="B525" t="s">
+        <v>36</v>
+      </c>
+      <c r="C525">
+        <v>10025</v>
+      </c>
+      <c r="D525" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>130</v>
+      </c>
+      <c r="B526" t="s">
+        <v>86</v>
+      </c>
+      <c r="C526">
+        <v>10025</v>
+      </c>
+      <c r="D526" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>130</v>
+      </c>
+      <c r="B527" t="s">
+        <v>87</v>
+      </c>
+      <c r="C527">
+        <v>10025</v>
+      </c>
+      <c r="D527" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>131</v>
+      </c>
+      <c r="B528" t="s">
+        <v>83</v>
+      </c>
+      <c r="C528">
+        <v>10025</v>
+      </c>
+      <c r="D528" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>131</v>
+      </c>
+      <c r="B529" t="s">
+        <v>127</v>
+      </c>
+      <c r="C529">
+        <v>10025</v>
+      </c>
+      <c r="D529" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>131</v>
+      </c>
+      <c r="B530" t="s">
+        <v>85</v>
+      </c>
+      <c r="C530">
+        <v>10025</v>
+      </c>
+      <c r="D530" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>131</v>
+      </c>
+      <c r="B531" t="s">
+        <v>36</v>
+      </c>
+      <c r="C531">
+        <v>10025</v>
+      </c>
+      <c r="D531" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>131</v>
+      </c>
+      <c r="B532" t="s">
+        <v>0</v>
+      </c>
+      <c r="C532">
+        <v>10025</v>
+      </c>
+      <c r="D532" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>131</v>
+      </c>
+      <c r="B533" t="s">
+        <v>86</v>
+      </c>
+      <c r="C533">
+        <v>10025</v>
+      </c>
+      <c r="D533" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>131</v>
+      </c>
+      <c r="B534" t="s">
+        <v>87</v>
+      </c>
+      <c r="C534">
+        <v>10025</v>
+      </c>
+      <c r="D534" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>132</v>
+      </c>
+      <c r="B535" t="s">
+        <v>83</v>
+      </c>
+      <c r="C535">
+        <v>10025</v>
+      </c>
+      <c r="D535" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>132</v>
+      </c>
+      <c r="B536" t="s">
+        <v>127</v>
+      </c>
+      <c r="C536">
+        <v>10025</v>
+      </c>
+      <c r="D536" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>132</v>
+      </c>
+      <c r="B537" t="s">
+        <v>85</v>
+      </c>
+      <c r="C537">
+        <v>10025</v>
+      </c>
+      <c r="D537" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>132</v>
+      </c>
+      <c r="B538" t="s">
+        <v>36</v>
+      </c>
+      <c r="C538">
+        <v>10025</v>
+      </c>
+      <c r="D538" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>132</v>
+      </c>
+      <c r="B539" t="s">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>10025</v>
+      </c>
+      <c r="D539" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>132</v>
+      </c>
+      <c r="B540" t="s">
+        <v>86</v>
+      </c>
+      <c r="C540">
+        <v>10025</v>
+      </c>
+      <c r="D540" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>132</v>
+      </c>
+      <c r="B541" t="s">
+        <v>87</v>
+      </c>
+      <c r="C541">
+        <v>10025</v>
+      </c>
+      <c r="D541" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>133</v>
+      </c>
+      <c r="B542" t="s">
+        <v>83</v>
+      </c>
+      <c r="C542">
+        <v>10025</v>
+      </c>
+      <c r="D542" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>133</v>
+      </c>
+      <c r="B543" t="s">
+        <v>127</v>
+      </c>
+      <c r="C543">
+        <v>10025</v>
+      </c>
+      <c r="D543" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>133</v>
+      </c>
+      <c r="B544" t="s">
+        <v>85</v>
+      </c>
+      <c r="C544">
+        <v>10025</v>
+      </c>
+      <c r="D544" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>133</v>
+      </c>
+      <c r="B545" t="s">
+        <v>36</v>
+      </c>
+      <c r="C545">
+        <v>10025</v>
+      </c>
+      <c r="D545" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>133</v>
+      </c>
+      <c r="B546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C546">
+        <v>10025</v>
+      </c>
+      <c r="D546" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>133</v>
+      </c>
+      <c r="B547" t="s">
+        <v>86</v>
+      </c>
+      <c r="C547">
+        <v>10025</v>
+      </c>
+      <c r="D547" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>133</v>
+      </c>
+      <c r="B548" t="s">
+        <v>87</v>
+      </c>
+      <c r="C548">
+        <v>10025</v>
+      </c>
+      <c r="D548" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>134</v>
+      </c>
+      <c r="B549" t="s">
+        <v>83</v>
+      </c>
+      <c r="C549">
+        <v>10025</v>
+      </c>
+      <c r="D549" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>134</v>
+      </c>
+      <c r="B550" t="s">
+        <v>127</v>
+      </c>
+      <c r="C550">
+        <v>10025</v>
+      </c>
+      <c r="D550" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>134</v>
+      </c>
+      <c r="B551" t="s">
+        <v>85</v>
+      </c>
+      <c r="C551">
+        <v>10025</v>
+      </c>
+      <c r="D551" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>134</v>
+      </c>
+      <c r="B552" t="s">
+        <v>36</v>
+      </c>
+      <c r="C552">
+        <v>10025</v>
+      </c>
+      <c r="D552" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>134</v>
+      </c>
+      <c r="B553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C553">
+        <v>10025</v>
+      </c>
+      <c r="D553" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>134</v>
+      </c>
+      <c r="B554" t="s">
+        <v>86</v>
+      </c>
+      <c r="C554">
+        <v>10025</v>
+      </c>
+      <c r="D554" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>135</v>
+      </c>
+      <c r="B555" t="s">
+        <v>87</v>
+      </c>
+      <c r="C555">
+        <v>10025</v>
+      </c>
+      <c r="D555" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>136</v>
+      </c>
+      <c r="B556" t="s">
+        <v>83</v>
+      </c>
+      <c r="C556">
+        <v>10025</v>
+      </c>
+      <c r="D556" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>136</v>
+      </c>
+      <c r="B557" t="s">
+        <v>127</v>
+      </c>
+      <c r="C557">
+        <v>10025</v>
+      </c>
+      <c r="D557" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>136</v>
+      </c>
+      <c r="B558" t="s">
+        <v>85</v>
+      </c>
+      <c r="C558">
+        <v>10025</v>
+      </c>
+      <c r="D558" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>136</v>
+      </c>
+      <c r="B559" t="s">
+        <v>36</v>
+      </c>
+      <c r="C559">
+        <v>10025</v>
+      </c>
+      <c r="D559" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>136</v>
+      </c>
+      <c r="B560" t="s">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>10025</v>
+      </c>
+      <c r="D560" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>136</v>
+      </c>
+      <c r="B561" t="s">
+        <v>86</v>
+      </c>
+      <c r="C561">
+        <v>10025</v>
+      </c>
+      <c r="D561" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>136</v>
+      </c>
+      <c r="B562" t="s">
+        <v>87</v>
+      </c>
+      <c r="C562">
+        <v>10025</v>
+      </c>
+      <c r="D562" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>137</v>
+      </c>
+      <c r="B563" t="s">
+        <v>83</v>
+      </c>
+      <c r="C563">
+        <v>10025</v>
+      </c>
+      <c r="D563" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>137</v>
+      </c>
+      <c r="B564" t="s">
+        <v>127</v>
+      </c>
+      <c r="C564">
+        <v>10025</v>
+      </c>
+      <c r="D564" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>137</v>
+      </c>
+      <c r="B565" t="s">
+        <v>85</v>
+      </c>
+      <c r="C565">
+        <v>10025</v>
+      </c>
+      <c r="D565" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>137</v>
+      </c>
+      <c r="B566" t="s">
+        <v>36</v>
+      </c>
+      <c r="C566">
+        <v>10025</v>
+      </c>
+      <c r="D566" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>137</v>
+      </c>
+      <c r="B567" t="s">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>10025</v>
+      </c>
+      <c r="D567" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>137</v>
+      </c>
+      <c r="B568" t="s">
+        <v>86</v>
+      </c>
+      <c r="C568">
+        <v>10025</v>
+      </c>
+      <c r="D568" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>137</v>
+      </c>
+      <c r="B569" t="s">
+        <v>87</v>
+      </c>
+      <c r="C569">
+        <v>10025</v>
+      </c>
+      <c r="D569" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>138</v>
+      </c>
+      <c r="B570" t="s">
+        <v>83</v>
+      </c>
+      <c r="C570">
+        <v>10025</v>
+      </c>
+      <c r="D570" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>138</v>
+      </c>
+      <c r="B571" t="s">
+        <v>85</v>
+      </c>
+      <c r="C571">
+        <v>10025</v>
+      </c>
+      <c r="D571" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>138</v>
+      </c>
+      <c r="B572" t="s">
+        <v>36</v>
+      </c>
+      <c r="C572">
+        <v>10025</v>
+      </c>
+      <c r="D572" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>138</v>
+      </c>
+      <c r="B573" t="s">
+        <v>139</v>
+      </c>
+      <c r="C573">
+        <v>10025</v>
+      </c>
+      <c r="D573" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>138</v>
+      </c>
+      <c r="B574" t="s">
+        <v>86</v>
+      </c>
+      <c r="C574">
+        <v>10025</v>
+      </c>
+      <c r="D574" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>138</v>
+      </c>
+      <c r="B575" t="s">
+        <v>87</v>
+      </c>
+      <c r="C575">
+        <v>10025</v>
+      </c>
+      <c r="D575" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>140</v>
+      </c>
+      <c r="B576" t="s">
+        <v>83</v>
+      </c>
+      <c r="C576">
+        <v>10025</v>
+      </c>
+      <c r="D576" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>140</v>
+      </c>
+      <c r="B577" t="s">
+        <v>85</v>
+      </c>
+      <c r="C577">
+        <v>10025</v>
+      </c>
+      <c r="D577" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>140</v>
+      </c>
+      <c r="B578" t="s">
+        <v>36</v>
+      </c>
+      <c r="C578">
+        <v>10025</v>
+      </c>
+      <c r="D578" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>140</v>
+      </c>
+      <c r="B579" t="s">
+        <v>139</v>
+      </c>
+      <c r="C579">
+        <v>10025</v>
+      </c>
+      <c r="D579" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>140</v>
+      </c>
+      <c r="B580" t="s">
+        <v>86</v>
+      </c>
+      <c r="C580">
+        <v>10025</v>
+      </c>
+      <c r="D580" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>140</v>
+      </c>
+      <c r="B581" t="s">
+        <v>87</v>
+      </c>
+      <c r="C581">
+        <v>10025</v>
+      </c>
+      <c r="D581" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>141</v>
+      </c>
+      <c r="B582" t="s">
+        <v>83</v>
+      </c>
+      <c r="C582">
+        <v>10025</v>
+      </c>
+      <c r="D582" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>141</v>
+      </c>
+      <c r="B583" t="s">
+        <v>85</v>
+      </c>
+      <c r="C583">
+        <v>10025</v>
+      </c>
+      <c r="D583" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>141</v>
+      </c>
+      <c r="B584" t="s">
+        <v>36</v>
+      </c>
+      <c r="C584">
+        <v>10025</v>
+      </c>
+      <c r="D584" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>141</v>
+      </c>
+      <c r="B585" t="s">
+        <v>139</v>
+      </c>
+      <c r="C585">
+        <v>10025</v>
+      </c>
+      <c r="D585" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>141</v>
+      </c>
+      <c r="B586" t="s">
+        <v>86</v>
+      </c>
+      <c r="C586">
+        <v>10025</v>
+      </c>
+      <c r="D586" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>141</v>
+      </c>
+      <c r="B587" t="s">
+        <v>87</v>
+      </c>
+      <c r="C587">
+        <v>10025</v>
+      </c>
+      <c r="D587" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>142</v>
+      </c>
+      <c r="B588" t="s">
+        <v>83</v>
+      </c>
+      <c r="C588">
+        <v>10025</v>
+      </c>
+      <c r="D588" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>142</v>
+      </c>
+      <c r="B589" t="s">
+        <v>85</v>
+      </c>
+      <c r="C589">
+        <v>10025</v>
+      </c>
+      <c r="D589" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>142</v>
+      </c>
+      <c r="B590" t="s">
+        <v>36</v>
+      </c>
+      <c r="C590">
+        <v>10025</v>
+      </c>
+      <c r="D590" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>142</v>
+      </c>
+      <c r="B591" t="s">
+        <v>139</v>
+      </c>
+      <c r="C591">
+        <v>10025</v>
+      </c>
+      <c r="D591" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>142</v>
+      </c>
+      <c r="B592" t="s">
+        <v>86</v>
+      </c>
+      <c r="C592">
+        <v>10025</v>
+      </c>
+      <c r="D592" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>142</v>
+      </c>
+      <c r="B593" t="s">
+        <v>87</v>
+      </c>
+      <c r="C593">
+        <v>10025</v>
+      </c>
+      <c r="D593" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>143</v>
+      </c>
+      <c r="B594" t="s">
+        <v>83</v>
+      </c>
+      <c r="C594">
+        <v>10025</v>
+      </c>
+      <c r="D594" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>143</v>
+      </c>
+      <c r="B595" t="s">
+        <v>85</v>
+      </c>
+      <c r="C595">
+        <v>10025</v>
+      </c>
+      <c r="D595" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>143</v>
+      </c>
+      <c r="B596" t="s">
+        <v>36</v>
+      </c>
+      <c r="C596">
+        <v>10025</v>
+      </c>
+      <c r="D596" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>143</v>
+      </c>
+      <c r="B597" t="s">
+        <v>139</v>
+      </c>
+      <c r="C597">
+        <v>10025</v>
+      </c>
+      <c r="D597" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>143</v>
+      </c>
+      <c r="B598" t="s">
+        <v>86</v>
+      </c>
+      <c r="C598">
+        <v>10025</v>
+      </c>
+      <c r="D598" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>143</v>
+      </c>
+      <c r="B599" t="s">
+        <v>87</v>
+      </c>
+      <c r="C599">
+        <v>10025</v>
+      </c>
+      <c r="D599" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>144</v>
+      </c>
+      <c r="B600" t="s">
+        <v>83</v>
+      </c>
+      <c r="C600">
+        <v>10025</v>
+      </c>
+      <c r="D600" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>144</v>
+      </c>
+      <c r="B601" t="s">
+        <v>85</v>
+      </c>
+      <c r="C601">
+        <v>10025</v>
+      </c>
+      <c r="D601" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>144</v>
+      </c>
+      <c r="B602" t="s">
+        <v>36</v>
+      </c>
+      <c r="C602">
+        <v>10025</v>
+      </c>
+      <c r="D602" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>144</v>
+      </c>
+      <c r="B603" t="s">
+        <v>139</v>
+      </c>
+      <c r="C603">
+        <v>10025</v>
+      </c>
+      <c r="D603" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>144</v>
+      </c>
+      <c r="B604" t="s">
+        <v>86</v>
+      </c>
+      <c r="C604">
+        <v>10025</v>
+      </c>
+      <c r="D604" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>144</v>
+      </c>
+      <c r="B605" t="s">
+        <v>87</v>
+      </c>
+      <c r="C605">
+        <v>10025</v>
+      </c>
+      <c r="D605" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>145</v>
+      </c>
+      <c r="B606" t="s">
+        <v>83</v>
+      </c>
+      <c r="C606">
+        <v>10025</v>
+      </c>
+      <c r="D606" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>145</v>
+      </c>
+      <c r="B607" t="s">
+        <v>85</v>
+      </c>
+      <c r="C607">
+        <v>10025</v>
+      </c>
+      <c r="D607" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>145</v>
+      </c>
+      <c r="B608" t="s">
+        <v>36</v>
+      </c>
+      <c r="C608">
+        <v>10025</v>
+      </c>
+      <c r="D608" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>145</v>
+      </c>
+      <c r="B609" t="s">
+        <v>139</v>
+      </c>
+      <c r="C609">
+        <v>10025</v>
+      </c>
+      <c r="D609" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>145</v>
+      </c>
+      <c r="B610" t="s">
+        <v>86</v>
+      </c>
+      <c r="C610">
+        <v>10025</v>
+      </c>
+      <c r="D610" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>145</v>
+      </c>
+      <c r="B611" t="s">
+        <v>87</v>
+      </c>
+      <c r="C611">
+        <v>10025</v>
+      </c>
+      <c r="D611" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>146</v>
+      </c>
+      <c r="B612" t="s">
+        <v>83</v>
+      </c>
+      <c r="C612">
+        <v>10025</v>
+      </c>
+      <c r="D612" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>146</v>
+      </c>
+      <c r="B613" t="s">
+        <v>85</v>
+      </c>
+      <c r="C613">
+        <v>10025</v>
+      </c>
+      <c r="D613" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>146</v>
+      </c>
+      <c r="B614" t="s">
+        <v>36</v>
+      </c>
+      <c r="C614">
+        <v>10025</v>
+      </c>
+      <c r="D614" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>146</v>
+      </c>
+      <c r="B615" t="s">
+        <v>139</v>
+      </c>
+      <c r="C615">
+        <v>10025</v>
+      </c>
+      <c r="D615" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>146</v>
+      </c>
+      <c r="B616" t="s">
+        <v>86</v>
+      </c>
+      <c r="C616">
+        <v>10025</v>
+      </c>
+      <c r="D616" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>146</v>
+      </c>
+      <c r="B617" t="s">
+        <v>87</v>
+      </c>
+      <c r="C617">
+        <v>10025</v>
+      </c>
+      <c r="D617" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>106</v>
+      </c>
+      <c r="B618" t="s">
+        <v>83</v>
+      </c>
+      <c r="C618">
+        <v>10025</v>
+      </c>
+      <c r="D618" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>106</v>
+      </c>
+      <c r="B619" t="s">
+        <v>85</v>
+      </c>
+      <c r="C619">
+        <v>10025</v>
+      </c>
+      <c r="D619" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>106</v>
+      </c>
+      <c r="B620" t="s">
+        <v>36</v>
+      </c>
+      <c r="C620">
+        <v>10025</v>
+      </c>
+      <c r="D620" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>106</v>
+      </c>
+      <c r="B621" t="s">
+        <v>139</v>
+      </c>
+      <c r="C621">
+        <v>10025</v>
+      </c>
+      <c r="D621" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>106</v>
+      </c>
+      <c r="B622" t="s">
+        <v>86</v>
+      </c>
+      <c r="C622">
+        <v>10025</v>
+      </c>
+      <c r="D622" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>106</v>
+      </c>
+      <c r="B623" t="s">
+        <v>87</v>
+      </c>
+      <c r="C623">
+        <v>10025</v>
+      </c>
+      <c r="D623" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/street_junctions_zipcode.xlsx
+++ b/street_junctions_zipcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apoorvasrinivasan/Desktop/Sem1/Data Science/P8105_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A388CAE-AE0D-274F-A96E-7C919FD5E66D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A46A89-02CE-284F-A0A5-893311A226CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1871" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="146">
   <si>
     <t>Broadway</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>Upper West Side</t>
-  </si>
-  <si>
-    <t>10023, 10024, 10025</t>
   </si>
   <si>
     <t>Central Park West</t>
@@ -812,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="D624" sqref="D624:D670"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="H292" sqref="H292:J292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4911,9 +4908,7 @@
       <c r="D292" t="s">
         <v>4</v>
       </c>
-      <c r="H292" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="H292" s="2"/>
       <c r="O292" s="3"/>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.2">
@@ -4993,10 +4988,10 @@
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B298" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C298">
         <v>10023</v>
@@ -5008,10 +5003,10 @@
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
+        <v>83</v>
+      </c>
+      <c r="B299" t="s">
         <v>84</v>
-      </c>
-      <c r="B299" t="s">
-        <v>85</v>
       </c>
       <c r="C299">
         <v>10023</v>
@@ -5023,7 +5018,7 @@
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B300" t="s">
         <v>36</v>
@@ -5038,7 +5033,7 @@
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B301" t="s">
         <v>0</v>
@@ -5053,10 +5048,10 @@
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B302" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C302">
         <v>10023</v>
@@ -5068,10 +5063,10 @@
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B303" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C303">
         <v>10023</v>
@@ -5083,10 +5078,10 @@
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B304" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C304">
         <v>10023</v>
@@ -5098,10 +5093,10 @@
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B305" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C305">
         <v>10023</v>
@@ -5113,7 +5108,7 @@
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B306" t="s">
         <v>36</v>
@@ -5128,7 +5123,7 @@
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B307" t="s">
         <v>0</v>
@@ -5143,10 +5138,10 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B308" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C308">
         <v>10023</v>
@@ -5158,10 +5153,10 @@
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B309" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C309">
         <v>10023</v>
@@ -5173,10 +5168,10 @@
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B310" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C310">
         <v>10023</v>
@@ -5188,10 +5183,10 @@
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B311" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C311">
         <v>10023</v>
@@ -5203,7 +5198,7 @@
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B312" t="s">
         <v>36</v>
@@ -5218,7 +5213,7 @@
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B313" t="s">
         <v>0</v>
@@ -5233,10 +5228,10 @@
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B314" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C314">
         <v>10023</v>
@@ -5248,10 +5243,10 @@
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B315" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C315">
         <v>10023</v>
@@ -5263,10 +5258,10 @@
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B316" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C316">
         <v>10023</v>
@@ -5278,10 +5273,10 @@
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B317" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C317">
         <v>10023</v>
@@ -5293,7 +5288,7 @@
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B318" t="s">
         <v>36</v>
@@ -5308,7 +5303,7 @@
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B319" t="s">
         <v>0</v>
@@ -5323,10 +5318,10 @@
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B320" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C320">
         <v>10023</v>
@@ -5338,10 +5333,10 @@
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B321" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C321">
         <v>10023</v>
@@ -5353,10 +5348,10 @@
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B322" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C322">
         <v>10023</v>
@@ -5368,10 +5363,10 @@
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B323" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C323">
         <v>10023</v>
@@ -5383,7 +5378,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B324" t="s">
         <v>36</v>
@@ -5398,7 +5393,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B325" t="s">
         <v>0</v>
@@ -5413,10 +5408,10 @@
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B326" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C326">
         <v>10023</v>
@@ -5428,10 +5423,10 @@
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>91</v>
+      </c>
+      <c r="B327" t="s">
         <v>92</v>
-      </c>
-      <c r="B327" t="s">
-        <v>93</v>
       </c>
       <c r="C327">
         <v>10023</v>
@@ -5443,10 +5438,10 @@
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B328" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C328">
         <v>10023</v>
@@ -5458,10 +5453,10 @@
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B329" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C329">
         <v>10023</v>
@@ -5473,7 +5468,7 @@
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B330" t="s">
         <v>36</v>
@@ -5488,7 +5483,7 @@
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B331" t="s">
         <v>0</v>
@@ -5503,10 +5498,10 @@
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B332" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C332">
         <v>10023</v>
@@ -5518,10 +5513,10 @@
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B333" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C333">
         <v>10023</v>
@@ -5533,10 +5528,10 @@
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B334" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C334">
         <v>10023</v>
@@ -5548,7 +5543,7 @@
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B335" t="s">
         <v>36</v>
@@ -5563,7 +5558,7 @@
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B336" t="s">
         <v>0</v>
@@ -5578,10 +5573,10 @@
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B337" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C337">
         <v>10023</v>
@@ -5593,10 +5588,10 @@
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B338" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C338">
         <v>10023</v>
@@ -5608,10 +5603,10 @@
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B339" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C339">
         <v>10023</v>
@@ -5623,7 +5618,7 @@
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B340" t="s">
         <v>36</v>
@@ -5638,7 +5633,7 @@
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B341" t="s">
         <v>0</v>
@@ -5653,10 +5648,10 @@
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B342" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C342">
         <v>10023</v>
@@ -5668,10 +5663,10 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B343" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C343">
         <v>10023</v>
@@ -5683,10 +5678,10 @@
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B344" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C344">
         <v>10023</v>
@@ -5698,7 +5693,7 @@
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B345" t="s">
         <v>36</v>
@@ -5713,7 +5708,7 @@
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B346" t="s">
         <v>0</v>
@@ -5728,10 +5723,10 @@
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B347" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C347">
         <v>10023</v>
@@ -5743,10 +5738,10 @@
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B348" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C348">
         <v>10023</v>
@@ -5758,10 +5753,10 @@
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B349" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C349">
         <v>10023</v>
@@ -5773,7 +5768,7 @@
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B350" t="s">
         <v>36</v>
@@ -5788,7 +5783,7 @@
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B351" t="s">
         <v>0</v>
@@ -5803,10 +5798,10 @@
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B352" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C352">
         <v>10023</v>
@@ -5818,10 +5813,10 @@
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B353" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C353">
         <v>10023</v>
@@ -5833,10 +5828,10 @@
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B354" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C354">
         <v>10023</v>
@@ -5848,7 +5843,7 @@
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B355" t="s">
         <v>36</v>
@@ -5863,7 +5858,7 @@
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B356" t="s">
         <v>0</v>
@@ -5878,10 +5873,10 @@
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B357" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C357">
         <v>10023</v>
@@ -5893,10 +5888,10 @@
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B358" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C358">
         <v>10023</v>
@@ -5908,10 +5903,10 @@
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B359" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C359">
         <v>10023</v>
@@ -5923,7 +5918,7 @@
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B360" t="s">
         <v>36</v>
@@ -5938,7 +5933,7 @@
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B361" t="s">
         <v>0</v>
@@ -5953,10 +5948,10 @@
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B362" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C362">
         <v>10023</v>
@@ -5968,10 +5963,10 @@
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B363" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C363">
         <v>10023</v>
@@ -5983,10 +5978,10 @@
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B364" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C364">
         <v>10023</v>
@@ -5998,7 +5993,7 @@
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B365" t="s">
         <v>36</v>
@@ -6013,7 +6008,7 @@
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B366" t="s">
         <v>0</v>
@@ -6028,10 +6023,10 @@
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B367" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C367">
         <v>10023</v>
@@ -6043,10 +6038,10 @@
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B368" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C368">
         <v>10023</v>
@@ -6058,10 +6053,10 @@
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B369" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C369">
         <v>10023</v>
@@ -6073,7 +6068,7 @@
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B370" t="s">
         <v>36</v>
@@ -6088,7 +6083,7 @@
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B371" t="s">
         <v>0</v>
@@ -6103,10 +6098,10 @@
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B372" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C372">
         <v>10023</v>
@@ -6118,10 +6113,10 @@
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B373" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C373">
         <v>10023</v>
@@ -6133,10 +6128,10 @@
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B374" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C374">
         <v>10023</v>
@@ -6148,7 +6143,7 @@
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B375" t="s">
         <v>36</v>
@@ -6163,7 +6158,7 @@
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B376" t="s">
         <v>0</v>
@@ -6178,10 +6173,10 @@
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B377" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C377">
         <v>10023</v>
@@ -6193,10 +6188,10 @@
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B378" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C378">
         <v>10023</v>
@@ -6208,10 +6203,10 @@
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B379" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C379">
         <v>10023</v>
@@ -6223,7 +6218,7 @@
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B380" t="s">
         <v>36</v>
@@ -6238,7 +6233,7 @@
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B381" t="s">
         <v>0</v>
@@ -6253,10 +6248,10 @@
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B382" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C382">
         <v>10023</v>
@@ -6268,10 +6263,10 @@
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B383" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C383">
         <v>10023</v>
@@ -6283,10 +6278,10 @@
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B384" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C384">
         <v>10023</v>
@@ -6298,7 +6293,7 @@
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B385" t="s">
         <v>36</v>
@@ -6313,7 +6308,7 @@
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B386" t="s">
         <v>0</v>
@@ -6328,10 +6323,10 @@
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B387" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C387">
         <v>10023</v>
@@ -6343,10 +6338,10 @@
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B388" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C388">
         <v>10024</v>
@@ -6358,10 +6353,10 @@
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B389" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C389">
         <v>10024</v>
@@ -6373,7 +6368,7 @@
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B390" t="s">
         <v>36</v>
@@ -6388,7 +6383,7 @@
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B391" t="s">
         <v>0</v>
@@ -6403,10 +6398,10 @@
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B392" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C392">
         <v>10024</v>
@@ -6418,10 +6413,10 @@
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B393" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C393">
         <v>10024</v>
@@ -6433,10 +6428,10 @@
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B394" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C394">
         <v>10024</v>
@@ -6448,10 +6443,10 @@
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B395" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C395">
         <v>10024</v>
@@ -6463,7 +6458,7 @@
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B396" t="s">
         <v>36</v>
@@ -6478,7 +6473,7 @@
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B397" t="s">
         <v>0</v>
@@ -6493,10 +6488,10 @@
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B398" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C398">
         <v>10024</v>
@@ -6508,10 +6503,10 @@
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B399" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C399">
         <v>10024</v>
@@ -6523,10 +6518,10 @@
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B400" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C400">
         <v>10024</v>
@@ -6538,10 +6533,10 @@
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B401" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C401">
         <v>10024</v>
@@ -6553,7 +6548,7 @@
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B402" t="s">
         <v>36</v>
@@ -6568,7 +6563,7 @@
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B403" t="s">
         <v>0</v>
@@ -6583,10 +6578,10 @@
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B404" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C404">
         <v>10024</v>
@@ -6598,10 +6593,10 @@
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B405" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C405">
         <v>10024</v>
@@ -6613,10 +6608,10 @@
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B406" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C406">
         <v>10024</v>
@@ -6628,10 +6623,10 @@
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B407" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C407">
         <v>10024</v>
@@ -6643,7 +6638,7 @@
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B408" t="s">
         <v>36</v>
@@ -6658,7 +6653,7 @@
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B409" t="s">
         <v>0</v>
@@ -6673,10 +6668,10 @@
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B410" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C410">
         <v>10024</v>
@@ -6688,10 +6683,10 @@
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B411" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C411">
         <v>10024</v>
@@ -6703,10 +6698,10 @@
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B412" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C412">
         <v>10024</v>
@@ -6718,10 +6713,10 @@
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B413" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C413">
         <v>10024</v>
@@ -6733,7 +6728,7 @@
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B414" t="s">
         <v>36</v>
@@ -6748,7 +6743,7 @@
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B415" t="s">
         <v>0</v>
@@ -6763,10 +6758,10 @@
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B416" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C416">
         <v>10024</v>
@@ -6778,10 +6773,10 @@
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B417" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C417">
         <v>10024</v>
@@ -6793,10 +6788,10 @@
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B418" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C418">
         <v>10024</v>
@@ -6808,10 +6803,10 @@
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B419" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C419">
         <v>10024</v>
@@ -6823,7 +6818,7 @@
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B420" t="s">
         <v>36</v>
@@ -6838,7 +6833,7 @@
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B421" t="s">
         <v>0</v>
@@ -6853,10 +6848,10 @@
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B422" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C422">
         <v>10024</v>
@@ -6868,10 +6863,10 @@
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B423" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C423">
         <v>10024</v>
@@ -6883,10 +6878,10 @@
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B424" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C424">
         <v>10024</v>
@@ -6898,10 +6893,10 @@
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B425" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C425">
         <v>10024</v>
@@ -6913,7 +6908,7 @@
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B426" t="s">
         <v>36</v>
@@ -6928,7 +6923,7 @@
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B427" t="s">
         <v>0</v>
@@ -6943,10 +6938,10 @@
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B428" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C428">
         <v>10024</v>
@@ -6958,10 +6953,10 @@
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B429" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C429">
         <v>10024</v>
@@ -6973,10 +6968,10 @@
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B430" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C430">
         <v>10024</v>
@@ -6988,10 +6983,10 @@
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B431" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C431">
         <v>10024</v>
@@ -7003,7 +6998,7 @@
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B432" t="s">
         <v>36</v>
@@ -7018,7 +7013,7 @@
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B433" t="s">
         <v>0</v>
@@ -7033,10 +7028,10 @@
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B434" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C434">
         <v>10024</v>
@@ -7048,10 +7043,10 @@
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B435" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C435">
         <v>10024</v>
@@ -7063,10 +7058,10 @@
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B436" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C436">
         <v>10024</v>
@@ -7078,10 +7073,10 @@
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B437" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C437">
         <v>10024</v>
@@ -7093,7 +7088,7 @@
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B438" t="s">
         <v>36</v>
@@ -7108,7 +7103,7 @@
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B439" t="s">
         <v>0</v>
@@ -7123,10 +7118,10 @@
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B440" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C440">
         <v>10024</v>
@@ -7138,10 +7133,10 @@
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B441" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C441">
         <v>10024</v>
@@ -7153,10 +7148,10 @@
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B442" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C442">
         <v>10024</v>
@@ -7168,10 +7163,10 @@
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B443" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C443">
         <v>10024</v>
@@ -7183,7 +7178,7 @@
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B444" t="s">
         <v>36</v>
@@ -7198,7 +7193,7 @@
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B445" t="s">
         <v>0</v>
@@ -7213,10 +7208,10 @@
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B446" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C446">
         <v>10024</v>
@@ -7228,10 +7223,10 @@
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B447" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C447">
         <v>10024</v>
@@ -7243,10 +7238,10 @@
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B448" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C448">
         <v>10024</v>
@@ -7258,10 +7253,10 @@
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B449" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C449">
         <v>10024</v>
@@ -7273,7 +7268,7 @@
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B450" t="s">
         <v>36</v>
@@ -7288,7 +7283,7 @@
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B451" t="s">
         <v>0</v>
@@ -7303,10 +7298,10 @@
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B452" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C452">
         <v>10024</v>
@@ -7318,10 +7313,10 @@
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B453" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C453">
         <v>10024</v>
@@ -7333,10 +7328,10 @@
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B454" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C454">
         <v>10024</v>
@@ -7348,10 +7343,10 @@
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B455" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C455">
         <v>10024</v>
@@ -7363,7 +7358,7 @@
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B456" t="s">
         <v>36</v>
@@ -7378,7 +7373,7 @@
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B457" t="s">
         <v>0</v>
@@ -7393,10 +7388,10 @@
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B458" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C458">
         <v>10024</v>
@@ -7408,10 +7403,10 @@
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B459" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C459">
         <v>10024</v>
@@ -7423,10 +7418,10 @@
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B460" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C460">
         <v>10024</v>
@@ -7438,10 +7433,10 @@
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B461" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C461">
         <v>10024</v>
@@ -7453,7 +7448,7 @@
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B462" t="s">
         <v>36</v>
@@ -7468,7 +7463,7 @@
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B463" t="s">
         <v>0</v>
@@ -7483,10 +7478,10 @@
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B464" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C464">
         <v>10024</v>
@@ -7498,10 +7493,10 @@
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B465" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C465">
         <v>10024</v>
@@ -7513,10 +7508,10 @@
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B466" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C466">
         <v>10024</v>
@@ -7528,10 +7523,10 @@
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B467" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C467">
         <v>10024</v>
@@ -7543,7 +7538,7 @@
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B468" t="s">
         <v>36</v>
@@ -7558,7 +7553,7 @@
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B469" t="s">
         <v>0</v>
@@ -7573,10 +7568,10 @@
     </row>
     <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B470" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C470">
         <v>10024</v>
@@ -7588,10 +7583,10 @@
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B471" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C471">
         <v>10024</v>
@@ -7603,10 +7598,10 @@
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B472" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C472">
         <v>10024</v>
@@ -7618,10 +7613,10 @@
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B473" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C473">
         <v>10024</v>
@@ -7633,7 +7628,7 @@
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B474" t="s">
         <v>36</v>
@@ -7648,7 +7643,7 @@
     </row>
     <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B475" t="s">
         <v>0</v>
@@ -7663,10 +7658,10 @@
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B476" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C476">
         <v>10024</v>
@@ -7678,10 +7673,10 @@
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B477" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C477">
         <v>10024</v>
@@ -7693,10 +7688,10 @@
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B478" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C478">
         <v>10024</v>
@@ -7708,10 +7703,10 @@
     </row>
     <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
+        <v>83</v>
+      </c>
+      <c r="B479" t="s">
         <v>84</v>
-      </c>
-      <c r="B479" t="s">
-        <v>85</v>
       </c>
       <c r="C479">
         <v>10024</v>
@@ -7723,7 +7718,7 @@
     </row>
     <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B480" t="s">
         <v>36</v>
@@ -7738,7 +7733,7 @@
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B481" t="s">
         <v>0</v>
@@ -7753,10 +7748,10 @@
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B482" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C482">
         <v>10024</v>
@@ -7768,10 +7763,10 @@
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B483" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C483">
         <v>10024</v>
@@ -7783,10 +7778,10 @@
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B484" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C484">
         <v>10025</v>
@@ -7798,7 +7793,7 @@
     </row>
     <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B485" t="s">
         <v>36</v>
@@ -7813,10 +7808,10 @@
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B486" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C486">
         <v>10025</v>
@@ -7828,10 +7823,10 @@
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B487" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C487">
         <v>10025</v>
@@ -7843,10 +7838,10 @@
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B488" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C488">
         <v>10025</v>
@@ -7858,7 +7853,7 @@
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B489" t="s">
         <v>36</v>
@@ -7873,10 +7868,10 @@
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B490" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C490">
         <v>10025</v>
@@ -7888,10 +7883,10 @@
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B491" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C491">
         <v>10025</v>
@@ -7903,10 +7898,10 @@
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B492" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C492">
         <v>10025</v>
@@ -7918,7 +7913,7 @@
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B493" t="s">
         <v>36</v>
@@ -7933,10 +7928,10 @@
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B494" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C494">
         <v>10025</v>
@@ -7948,10 +7943,10 @@
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B495" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C495">
         <v>10025</v>
@@ -7963,10 +7958,10 @@
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B496" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C496">
         <v>10025</v>
@@ -7978,7 +7973,7 @@
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B497" t="s">
         <v>36</v>
@@ -7993,10 +7988,10 @@
     </row>
     <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B498" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C498">
         <v>10025</v>
@@ -8008,10 +8003,10 @@
     </row>
     <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B499" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C499">
         <v>10025</v>
@@ -8023,10 +8018,10 @@
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B500" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C500">
         <v>10025</v>
@@ -8038,7 +8033,7 @@
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B501" t="s">
         <v>36</v>
@@ -8053,10 +8048,10 @@
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B502" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C502">
         <v>10025</v>
@@ -8068,10 +8063,10 @@
     </row>
     <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B503" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C503">
         <v>10025</v>
@@ -8083,10 +8078,10 @@
     </row>
     <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
+        <v>125</v>
+      </c>
+      <c r="B504" t="s">
         <v>126</v>
-      </c>
-      <c r="B504" t="s">
-        <v>127</v>
       </c>
       <c r="C504">
         <v>10025</v>
@@ -8098,10 +8093,10 @@
     </row>
     <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B505" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C505">
         <v>10025</v>
@@ -8113,7 +8108,7 @@
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B506" t="s">
         <v>36</v>
@@ -8128,10 +8123,10 @@
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B507" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C507">
         <v>10025</v>
@@ -8143,10 +8138,10 @@
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B508" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C508">
         <v>10025</v>
@@ -8158,10 +8153,10 @@
     </row>
     <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B509" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C509">
         <v>10025</v>
@@ -8173,10 +8168,10 @@
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B510" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C510">
         <v>10025</v>
@@ -8188,10 +8183,10 @@
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B511" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C511">
         <v>10025</v>
@@ -8202,7 +8197,7 @@
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B512" t="s">
         <v>36</v>
@@ -8216,10 +8211,10 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B513" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C513">
         <v>10025</v>
@@ -8230,10 +8225,10 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B514" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C514">
         <v>10025</v>
@@ -8244,10 +8239,10 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B515" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C515">
         <v>10025</v>
@@ -8258,10 +8253,10 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B516" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C516">
         <v>10025</v>
@@ -8272,10 +8267,10 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B517" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C517">
         <v>10025</v>
@@ -8286,7 +8281,7 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B518" t="s">
         <v>36</v>
@@ -8300,10 +8295,10 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B519" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C519">
         <v>10025</v>
@@ -8314,10 +8309,10 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B520" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C520">
         <v>10025</v>
@@ -8328,10 +8323,10 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B521" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C521">
         <v>10025</v>
@@ -8342,10 +8337,10 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B522" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C522">
         <v>10025</v>
@@ -8356,10 +8351,10 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B523" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C523">
         <v>10025</v>
@@ -8370,7 +8365,7 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B524" t="s">
         <v>0</v>
@@ -8384,7 +8379,7 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B525" t="s">
         <v>36</v>
@@ -8398,10 +8393,10 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B526" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C526">
         <v>10025</v>
@@ -8412,10 +8407,10 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B527" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C527">
         <v>10025</v>
@@ -8426,10 +8421,10 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B528" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C528">
         <v>10025</v>
@@ -8440,10 +8435,10 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B529" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C529">
         <v>10025</v>
@@ -8454,10 +8449,10 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B530" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C530">
         <v>10025</v>
@@ -8468,7 +8463,7 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B531" t="s">
         <v>36</v>
@@ -8482,7 +8477,7 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B532" t="s">
         <v>0</v>
@@ -8496,10 +8491,10 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B533" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C533">
         <v>10025</v>
@@ -8510,10 +8505,10 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B534" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C534">
         <v>10025</v>
@@ -8524,10 +8519,10 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B535" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C535">
         <v>10025</v>
@@ -8538,10 +8533,10 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B536" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C536">
         <v>10025</v>
@@ -8552,10 +8547,10 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B537" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C537">
         <v>10025</v>
@@ -8566,7 +8561,7 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B538" t="s">
         <v>36</v>
@@ -8580,7 +8575,7 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B539" t="s">
         <v>0</v>
@@ -8594,10 +8589,10 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B540" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C540">
         <v>10025</v>
@@ -8608,10 +8603,10 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B541" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C541">
         <v>10025</v>
@@ -8622,10 +8617,10 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B542" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C542">
         <v>10025</v>
@@ -8636,10 +8631,10 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B543" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C543">
         <v>10025</v>
@@ -8650,10 +8645,10 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B544" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C544">
         <v>10025</v>
@@ -8664,7 +8659,7 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B545" t="s">
         <v>36</v>
@@ -8678,7 +8673,7 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B546" t="s">
         <v>0</v>
@@ -8692,10 +8687,10 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B547" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C547">
         <v>10025</v>
@@ -8706,10 +8701,10 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B548" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C548">
         <v>10025</v>
@@ -8720,10 +8715,10 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B549" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C549">
         <v>10025</v>
@@ -8734,10 +8729,10 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B550" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C550">
         <v>10025</v>
@@ -8748,10 +8743,10 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B551" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C551">
         <v>10025</v>
@@ -8762,7 +8757,7 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B552" t="s">
         <v>36</v>
@@ -8776,7 +8771,7 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B553" t="s">
         <v>0</v>
@@ -8790,10 +8785,10 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B554" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C554">
         <v>10025</v>
@@ -8804,10 +8799,10 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B555" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C555">
         <v>10025</v>
@@ -8818,10 +8813,10 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B556" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C556">
         <v>10025</v>
@@ -8832,10 +8827,10 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B557" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C557">
         <v>10025</v>
@@ -8846,10 +8841,10 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B558" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C558">
         <v>10025</v>
@@ -8860,7 +8855,7 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B559" t="s">
         <v>36</v>
@@ -8874,7 +8869,7 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B560" t="s">
         <v>0</v>
@@ -8888,10 +8883,10 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B561" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C561">
         <v>10025</v>
@@ -8902,10 +8897,10 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B562" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C562">
         <v>10025</v>
@@ -8916,10 +8911,10 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B563" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C563">
         <v>10025</v>
@@ -8930,10 +8925,10 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B564" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C564">
         <v>10025</v>
@@ -8944,10 +8939,10 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B565" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C565">
         <v>10025</v>
@@ -8958,7 +8953,7 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B566" t="s">
         <v>36</v>
@@ -8972,7 +8967,7 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B567" t="s">
         <v>0</v>
@@ -8986,10 +8981,10 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B568" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C568">
         <v>10025</v>
@@ -9000,10 +8995,10 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B569" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C569">
         <v>10025</v>
@@ -9014,10 +9009,10 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B570" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C570">
         <v>10025</v>
@@ -9028,10 +9023,10 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B571" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C571">
         <v>10025</v>
@@ -9042,7 +9037,7 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B572" t="s">
         <v>36</v>
@@ -9056,10 +9051,10 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
+        <v>137</v>
+      </c>
+      <c r="B573" t="s">
         <v>138</v>
-      </c>
-      <c r="B573" t="s">
-        <v>139</v>
       </c>
       <c r="C573">
         <v>10025</v>
@@ -9070,10 +9065,10 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B574" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C574">
         <v>10025</v>
@@ -9084,10 +9079,10 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B575" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C575">
         <v>10025</v>
@@ -9098,10 +9093,10 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B576" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C576">
         <v>10025</v>
@@ -9112,10 +9107,10 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B577" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C577">
         <v>10025</v>
@@ -9126,7 +9121,7 @@
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B578" t="s">
         <v>36</v>
@@ -9140,10 +9135,10 @@
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B579" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C579">
         <v>10025</v>
@@ -9154,10 +9149,10 @@
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B580" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C580">
         <v>10025</v>
@@ -9168,10 +9163,10 @@
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B581" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C581">
         <v>10025</v>
@@ -9182,10 +9177,10 @@
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B582" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C582">
         <v>10025</v>
@@ -9196,10 +9191,10 @@
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B583" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C583">
         <v>10025</v>
@@ -9210,7 +9205,7 @@
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B584" t="s">
         <v>36</v>
@@ -9224,10 +9219,10 @@
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B585" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C585">
         <v>10025</v>
@@ -9238,10 +9233,10 @@
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B586" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C586">
         <v>10025</v>
@@ -9252,10 +9247,10 @@
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B587" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C587">
         <v>10025</v>
@@ -9266,10 +9261,10 @@
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B588" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C588">
         <v>10025</v>
@@ -9280,10 +9275,10 @@
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B589" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C589">
         <v>10025</v>
@@ -9294,7 +9289,7 @@
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B590" t="s">
         <v>36</v>
@@ -9308,10 +9303,10 @@
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B591" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C591">
         <v>10025</v>
@@ -9322,10 +9317,10 @@
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B592" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C592">
         <v>10025</v>
@@ -9336,10 +9331,10 @@
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B593" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C593">
         <v>10025</v>
@@ -9350,10 +9345,10 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B594" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C594">
         <v>10025</v>
@@ -9364,10 +9359,10 @@
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B595" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C595">
         <v>10025</v>
@@ -9378,7 +9373,7 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B596" t="s">
         <v>36</v>
@@ -9392,10 +9387,10 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B597" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C597">
         <v>10025</v>
@@ -9406,10 +9401,10 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B598" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C598">
         <v>10025</v>
@@ -9420,10 +9415,10 @@
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B599" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C599">
         <v>10025</v>
@@ -9434,10 +9429,10 @@
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B600" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C600">
         <v>10025</v>
@@ -9448,10 +9443,10 @@
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B601" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C601">
         <v>10025</v>
@@ -9462,7 +9457,7 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B602" t="s">
         <v>36</v>
@@ -9476,10 +9471,10 @@
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B603" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C603">
         <v>10025</v>
@@ -9490,10 +9485,10 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B604" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C604">
         <v>10025</v>
@@ -9504,10 +9499,10 @@
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B605" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C605">
         <v>10025</v>
@@ -9518,10 +9513,10 @@
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B606" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C606">
         <v>10025</v>
@@ -9532,10 +9527,10 @@
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B607" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C607">
         <v>10025</v>
@@ -9546,7 +9541,7 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B608" t="s">
         <v>36</v>
@@ -9560,10 +9555,10 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B609" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C609">
         <v>10025</v>
@@ -9574,10 +9569,10 @@
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B610" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C610">
         <v>10025</v>
@@ -9588,10 +9583,10 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B611" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C611">
         <v>10025</v>
@@ -9602,10 +9597,10 @@
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B612" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C612">
         <v>10025</v>
@@ -9616,10 +9611,10 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B613" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C613">
         <v>10025</v>
@@ -9630,7 +9625,7 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B614" t="s">
         <v>36</v>
@@ -9644,10 +9639,10 @@
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B615" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C615">
         <v>10025</v>
@@ -9658,10 +9653,10 @@
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B616" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C616">
         <v>10025</v>
@@ -9672,10 +9667,10 @@
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B617" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C617">
         <v>10025</v>
@@ -9686,10 +9681,10 @@
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B618" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C618">
         <v>10025</v>
@@ -9700,10 +9695,10 @@
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B619" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C619">
         <v>10025</v>
@@ -9714,7 +9709,7 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B620" t="s">
         <v>36</v>
@@ -9728,10 +9723,10 @@
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B621" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C621">
         <v>10025</v>
@@ -9742,10 +9737,10 @@
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B622" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C622">
         <v>10025</v>
@@ -9756,10 +9751,10 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B623" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C623">
         <v>10025</v>

--- a/street_junctions_zipcode.xlsx
+++ b/street_junctions_zipcode.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apoorvasrinivasan/Desktop/Sem1/Data Science/P8105_final_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DrPH\P8105\P8105_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A46A89-02CE-284F-A0A5-893311A226CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="147">
   <si>
     <t>Broadway</t>
   </si>
@@ -276,9 +275,6 @@
     <t>Central Park West</t>
   </si>
   <si>
-    <t>WEST 76TH STREET</t>
-  </si>
-  <si>
     <t>Columbus Avenue</t>
   </si>
   <si>
@@ -288,187 +284,193 @@
     <t>Riverside Drive</t>
   </si>
   <si>
-    <t>WEST 75TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 74TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 73RD STREET</t>
-  </si>
-  <si>
-    <t>WEST 74th STREET</t>
-  </si>
-  <si>
-    <t>WEST 72ND STREET</t>
-  </si>
-  <si>
     <t>Riverside Boulevard</t>
   </si>
   <si>
-    <t>WEST 71ST STREET</t>
-  </si>
-  <si>
-    <t>WEST 70TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 60TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 69TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 68TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 67TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 66TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 65TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 64TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 63TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 62ND STREET</t>
-  </si>
-  <si>
-    <t>WEST 61ST STREET</t>
-  </si>
-  <si>
-    <t>WEST 91ST STREET</t>
-  </si>
-  <si>
-    <t>WEST 90TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 89TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 88TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 87TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 86TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 85TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 84TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 83RD STREET</t>
-  </si>
-  <si>
-    <t>WEST 82ND STREET</t>
-  </si>
-  <si>
-    <t>WEST 81ST STREET</t>
-  </si>
-  <si>
-    <t>WEST 80TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 79TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 78TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 77TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 115TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 114th STREET</t>
-  </si>
-  <si>
-    <t>WEST 113TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 112TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 111TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 110TH STREET</t>
-  </si>
-  <si>
     <t>Manhattan Avenue</t>
   </si>
   <si>
-    <t>WEST 109TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 108TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 107TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 106TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 105TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 104TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 103TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 102TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 101TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 100TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 99TH STREET</t>
-  </si>
-  <si>
     <t>BROADWAY</t>
   </si>
   <si>
-    <t>WEST 98TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 97TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 96TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 95TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 94TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 93TH STREET</t>
-  </si>
-  <si>
-    <t>WEST 92TH STREET</t>
+    <t>WEST 76 STREET</t>
+  </si>
+  <si>
+    <t>WEST 75 STREET</t>
+  </si>
+  <si>
+    <t>WEST 74 STREET</t>
+  </si>
+  <si>
+    <t>WEST 73 STREET</t>
+  </si>
+  <si>
+    <t>WEST 72 STREET</t>
+  </si>
+  <si>
+    <t>WEST 71 STREET</t>
+  </si>
+  <si>
+    <t>WEST 70 STREET</t>
+  </si>
+  <si>
+    <t>WEST 69 STREET</t>
+  </si>
+  <si>
+    <t>WEST 68 STREET</t>
+  </si>
+  <si>
+    <t>WEST 67 STREET</t>
+  </si>
+  <si>
+    <t>WEST 66 STREET</t>
+  </si>
+  <si>
+    <t>WEST 65 STREET</t>
+  </si>
+  <si>
+    <t>WEST 65  STREET</t>
+  </si>
+  <si>
+    <t>WEST 64  STREET</t>
+  </si>
+  <si>
+    <t>WEST 63  STREET</t>
+  </si>
+  <si>
+    <t>WEST 60  STREET</t>
+  </si>
+  <si>
+    <t>WEST 90  STREET</t>
+  </si>
+  <si>
+    <t>WEST 89  STREET</t>
+  </si>
+  <si>
+    <t>WEST 88  STREET</t>
+  </si>
+  <si>
+    <t>WEST 87  STREET</t>
+  </si>
+  <si>
+    <t>WEST 86  STREET</t>
+  </si>
+  <si>
+    <t>WEST 85  STREET</t>
+  </si>
+  <si>
+    <t>WEST 84  STREET</t>
+  </si>
+  <si>
+    <t>WEST 80  STREET</t>
+  </si>
+  <si>
+    <t>WEST 79  STREET</t>
+  </si>
+  <si>
+    <t>WEST 78  STREET</t>
+  </si>
+  <si>
+    <t>WEST 77  STREET</t>
+  </si>
+  <si>
+    <t>WEST 76  STREET</t>
+  </si>
+  <si>
+    <t>WEST 115  STREET</t>
+  </si>
+  <si>
+    <t>WEST 114  STREET</t>
+  </si>
+  <si>
+    <t>WEST 113  STREET</t>
+  </si>
+  <si>
+    <t>WEST 112  STREET</t>
+  </si>
+  <si>
+    <t>WEST 111  STREET</t>
+  </si>
+  <si>
+    <t>WEST 110  STREET</t>
+  </si>
+  <si>
+    <t>WEST 109  STREET</t>
+  </si>
+  <si>
+    <t>WEST 108  STREET</t>
+  </si>
+  <si>
+    <t>WEST 107  STREET</t>
+  </si>
+  <si>
+    <t>WEST 106  STREET</t>
+  </si>
+  <si>
+    <t>WEST 105  STREET</t>
+  </si>
+  <si>
+    <t>WEST 104  STREET</t>
+  </si>
+  <si>
+    <t>WEST 103  STREET</t>
+  </si>
+  <si>
+    <t>WEST 102  STREET</t>
+  </si>
+  <si>
+    <t>WEST 101  STREET</t>
+  </si>
+  <si>
+    <t>WEST 100  STREET</t>
+  </si>
+  <si>
+    <t>WEST 99  STREET</t>
+  </si>
+  <si>
+    <t>WEST 98  STREET</t>
+  </si>
+  <si>
+    <t>WEST 97  STREET</t>
+  </si>
+  <si>
+    <t>WEST 96  STREET</t>
+  </si>
+  <si>
+    <t>WEST 95  STREET</t>
+  </si>
+  <si>
+    <t>WEST 94  STREET</t>
+  </si>
+  <si>
+    <t>WEST 93  STREET</t>
+  </si>
+  <si>
+    <t>WEST 92  STREET</t>
+  </si>
+  <si>
+    <t>WEST 62  STREET</t>
+  </si>
+  <si>
+    <t>WEST 82  STREET</t>
+  </si>
+  <si>
+    <t>WEST 61  STREET</t>
+  </si>
+  <si>
+    <t>WEST 91  STREET</t>
+  </si>
+  <si>
+    <t>WEST 81  STREET</t>
+  </si>
+  <si>
+    <t>WEST 83  STREET</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -806,22 +808,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="H292" sqref="H292:J292"/>
+    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -835,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -849,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -863,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -877,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -891,7 +893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -905,7 +907,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -919,7 +921,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -933,7 +935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -947,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -961,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -975,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -989,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1087,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>15</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>53</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>56</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>17</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>40</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>41</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>21</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>54</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>54</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>54</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>54</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>54</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>57</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>57</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>57</v>
       </c>
@@ -2417,7 +2419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>57</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>57</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>57</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>57</v>
       </c>
@@ -2473,7 +2475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>23</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>24</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>24</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>25</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -2879,7 +2881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>27</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>27</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>27</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>27</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>27</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>27</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>27</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>27</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>28</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>28</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>28</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>28</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>28</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>28</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>28</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>29</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>29</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>29</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>29</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>29</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>29</v>
       </c>
@@ -3201,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>29</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>52</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>52</v>
       </c>
@@ -3257,7 +3259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>52</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>52</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>52</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>52</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>52</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>52</v>
       </c>
@@ -3355,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>36</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>55</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>55</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>55</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>55</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>55</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>58</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>58</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>58</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>58</v>
       </c>
@@ -3495,7 +3497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>58</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>58</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -3537,7 +3539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>58</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>30</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>30</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>30</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>30</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>30</v>
       </c>
@@ -3635,7 +3637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>30</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>31</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>31</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>31</v>
       </c>
@@ -3705,7 +3707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>31</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>31</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>31</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>32</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>32</v>
       </c>
@@ -3775,7 +3777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>32</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>32</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>32</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>32</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>33</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>33</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>33</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>33</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>33</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>33</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>33</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>33</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>33</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>33</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>33</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>61</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>61</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>61</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>61</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>61</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>61</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>63</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>63</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>63</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>63</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>63</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>63</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>63</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>64</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>64</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>64</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>64</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>64</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>64</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>64</v>
       </c>
@@ -4335,7 +4337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>64</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>64</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>64</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>65</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>65</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>65</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>66</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>66</v>
       </c>
@@ -4447,7 +4449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>66</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>66</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>66</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>0</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>68</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>68</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>34</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>67</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>67</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>67</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>68</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>68</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>44</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>44</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>72</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>72</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>72</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>71</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>73</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>75</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>75</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>74</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>76</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>77</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>77</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>77</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>78</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>79</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>79</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>79</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>79</v>
       </c>
@@ -4911,7 +4913,7 @@
       <c r="H292" s="2"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>80</v>
       </c>
@@ -4926,7 +4928,7 @@
       </c>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>80</v>
       </c>
@@ -4941,7 +4943,7 @@
       </c>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>80</v>
       </c>
@@ -4956,7 +4958,7 @@
       </c>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>80</v>
       </c>
@@ -4971,7 +4973,7 @@
       </c>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>80</v>
       </c>
@@ -4986,9 +4988,9 @@
       </c>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B298" t="s">
         <v>82</v>
@@ -5001,12 +5003,12 @@
       </c>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
+        <v>89</v>
+      </c>
+      <c r="B299" t="s">
         <v>83</v>
-      </c>
-      <c r="B299" t="s">
-        <v>84</v>
       </c>
       <c r="C299">
         <v>10023</v>
@@ -5016,9 +5018,9 @@
       </c>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B300" t="s">
         <v>36</v>
@@ -5031,9 +5033,9 @@
       </c>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B301" t="s">
         <v>0</v>
@@ -5046,12 +5048,12 @@
       </c>
       <c r="O301" s="3"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B302" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C302">
         <v>10023</v>
@@ -5061,12 +5063,12 @@
       </c>
       <c r="O302" s="3"/>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B303" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C303">
         <v>10023</v>
@@ -5076,9 +5078,9 @@
       </c>
       <c r="O303" s="3"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B304" t="s">
         <v>82</v>
@@ -5091,12 +5093,12 @@
       </c>
       <c r="O304" s="3"/>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B305" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C305">
         <v>10023</v>
@@ -5106,9 +5108,9 @@
       </c>
       <c r="O305" s="3"/>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B306" t="s">
         <v>36</v>
@@ -5121,9 +5123,9 @@
       </c>
       <c r="O306" s="3"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B307" t="s">
         <v>0</v>
@@ -5136,12 +5138,12 @@
       </c>
       <c r="O307" s="3"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B308" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C308">
         <v>10023</v>
@@ -5151,12 +5153,12 @@
       </c>
       <c r="O308" s="3"/>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B309" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C309">
         <v>10023</v>
@@ -5166,9 +5168,9 @@
       </c>
       <c r="O309" s="3"/>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B310" t="s">
         <v>82</v>
@@ -5181,12 +5183,12 @@
       </c>
       <c r="O310" s="3"/>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B311" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C311">
         <v>10023</v>
@@ -5196,9 +5198,9 @@
       </c>
       <c r="O311" s="3"/>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B312" t="s">
         <v>36</v>
@@ -5211,9 +5213,9 @@
       </c>
       <c r="O312" s="3"/>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B313" t="s">
         <v>0</v>
@@ -5226,12 +5228,12 @@
       </c>
       <c r="O313" s="3"/>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B314" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C314">
         <v>10023</v>
@@ -5241,12 +5243,12 @@
       </c>
       <c r="O314" s="3"/>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B315" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C315">
         <v>10023</v>
@@ -5256,9 +5258,9 @@
       </c>
       <c r="O315" s="3"/>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B316" t="s">
         <v>82</v>
@@ -5271,12 +5273,12 @@
       </c>
       <c r="O316" s="3"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B317" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C317">
         <v>10023</v>
@@ -5286,9 +5288,9 @@
       </c>
       <c r="O317" s="3"/>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B318" t="s">
         <v>36</v>
@@ -5301,9 +5303,9 @@
       </c>
       <c r="O318" s="3"/>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B319" t="s">
         <v>0</v>
@@ -5316,12 +5318,12 @@
       </c>
       <c r="O319" s="3"/>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B320" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C320">
         <v>10023</v>
@@ -5331,12 +5333,12 @@
       </c>
       <c r="O320" s="3"/>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B321" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C321">
         <v>10023</v>
@@ -5346,9 +5348,9 @@
       </c>
       <c r="O321" s="3"/>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B322" t="s">
         <v>82</v>
@@ -5361,12 +5363,12 @@
       </c>
       <c r="O322" s="3"/>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B323" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C323">
         <v>10023</v>
@@ -5376,9 +5378,9 @@
       </c>
       <c r="O323" s="3"/>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B324" t="s">
         <v>36</v>
@@ -5391,9 +5393,9 @@
       </c>
       <c r="O324" s="3"/>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B325" t="s">
         <v>0</v>
@@ -5406,12 +5408,12 @@
       </c>
       <c r="O325" s="3"/>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B326" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C326">
         <v>10023</v>
@@ -5421,12 +5423,12 @@
       </c>
       <c r="O326" s="3"/>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B327" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C327">
         <v>10023</v>
@@ -5436,9 +5438,9 @@
       </c>
       <c r="O327" s="3"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B328" t="s">
         <v>82</v>
@@ -5451,12 +5453,12 @@
       </c>
       <c r="O328" s="3"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B329" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C329">
         <v>10023</v>
@@ -5466,9 +5468,9 @@
       </c>
       <c r="O329" s="3"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B330" t="s">
         <v>36</v>
@@ -5481,9 +5483,9 @@
       </c>
       <c r="O330" s="3"/>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B331" t="s">
         <v>0</v>
@@ -5496,12 +5498,12 @@
       </c>
       <c r="O331" s="3"/>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B332" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C332">
         <v>10023</v>
@@ -5511,9 +5513,9 @@
       </c>
       <c r="O332" s="3"/>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B333" t="s">
         <v>82</v>
@@ -5526,12 +5528,12 @@
       </c>
       <c r="O333" s="3"/>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B334" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C334">
         <v>10023</v>
@@ -5541,9 +5543,9 @@
       </c>
       <c r="O334" s="3"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B335" t="s">
         <v>36</v>
@@ -5556,9 +5558,9 @@
       </c>
       <c r="O335" s="3"/>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B336" t="s">
         <v>0</v>
@@ -5571,12 +5573,12 @@
       </c>
       <c r="O336" s="3"/>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B337" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C337">
         <v>10023</v>
@@ -5586,7 +5588,7 @@
       </c>
       <c r="O337" s="3"/>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>96</v>
       </c>
@@ -5601,12 +5603,12 @@
       </c>
       <c r="O338" s="3"/>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>96</v>
       </c>
       <c r="B339" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C339">
         <v>10023</v>
@@ -5616,7 +5618,7 @@
       </c>
       <c r="O339" s="3"/>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>96</v>
       </c>
@@ -5631,7 +5633,7 @@
       </c>
       <c r="O340" s="3"/>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>96</v>
       </c>
@@ -5646,12 +5648,12 @@
       </c>
       <c r="O341" s="3"/>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>96</v>
       </c>
       <c r="B342" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C342">
         <v>10023</v>
@@ -5661,7 +5663,7 @@
       </c>
       <c r="O342" s="3"/>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>97</v>
       </c>
@@ -5676,12 +5678,12 @@
       </c>
       <c r="O343" s="3"/>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>97</v>
       </c>
       <c r="B344" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C344">
         <v>10023</v>
@@ -5691,7 +5693,7 @@
       </c>
       <c r="O344" s="3"/>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>97</v>
       </c>
@@ -5706,7 +5708,7 @@
       </c>
       <c r="O345" s="3"/>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>97</v>
       </c>
@@ -5721,12 +5723,12 @@
       </c>
       <c r="O346" s="3"/>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>97</v>
       </c>
       <c r="B347" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C347">
         <v>10023</v>
@@ -5736,7 +5738,7 @@
       </c>
       <c r="O347" s="3"/>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>98</v>
       </c>
@@ -5751,12 +5753,12 @@
       </c>
       <c r="O348" s="3"/>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>98</v>
       </c>
       <c r="B349" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C349">
         <v>10023</v>
@@ -5766,7 +5768,7 @@
       </c>
       <c r="O349" s="3"/>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>98</v>
       </c>
@@ -5781,7 +5783,7 @@
       </c>
       <c r="O350" s="3"/>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>98</v>
       </c>
@@ -5796,12 +5798,12 @@
       </c>
       <c r="O351" s="3"/>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>98</v>
       </c>
       <c r="B352" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C352">
         <v>10023</v>
@@ -5811,7 +5813,7 @@
       </c>
       <c r="O352" s="3"/>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>99</v>
       </c>
@@ -5826,12 +5828,12 @@
       </c>
       <c r="O353" s="3"/>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>99</v>
       </c>
       <c r="B354" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C354">
         <v>10023</v>
@@ -5841,7 +5843,7 @@
       </c>
       <c r="O354" s="3"/>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>99</v>
       </c>
@@ -5856,7 +5858,7 @@
       </c>
       <c r="O355" s="3"/>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>99</v>
       </c>
@@ -5871,12 +5873,12 @@
       </c>
       <c r="O356" s="3"/>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>99</v>
       </c>
       <c r="B357" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C357">
         <v>10023</v>
@@ -5886,7 +5888,7 @@
       </c>
       <c r="O357" s="3"/>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>100</v>
       </c>
@@ -5901,12 +5903,12 @@
       </c>
       <c r="O358" s="3"/>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B359" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C359">
         <v>10023</v>
@@ -5916,9 +5918,9 @@
       </c>
       <c r="O359" s="3"/>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B360" t="s">
         <v>36</v>
@@ -5931,9 +5933,9 @@
       </c>
       <c r="O360" s="3"/>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B361" t="s">
         <v>0</v>
@@ -5946,12 +5948,12 @@
       </c>
       <c r="O361" s="3"/>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B362" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C362">
         <v>10023</v>
@@ -5961,9 +5963,9 @@
       </c>
       <c r="O362" s="3"/>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B363" t="s">
         <v>82</v>
@@ -5976,12 +5978,12 @@
       </c>
       <c r="O363" s="3"/>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B364" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C364">
         <v>10023</v>
@@ -5991,9 +5993,9 @@
       </c>
       <c r="O364" s="3"/>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B365" t="s">
         <v>36</v>
@@ -6006,9 +6008,9 @@
       </c>
       <c r="O365" s="3"/>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B366" t="s">
         <v>0</v>
@@ -6021,12 +6023,12 @@
       </c>
       <c r="O366" s="3"/>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B367" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C367">
         <v>10023</v>
@@ -6036,9 +6038,9 @@
       </c>
       <c r="O367" s="3"/>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B368" t="s">
         <v>82</v>
@@ -6051,12 +6053,12 @@
       </c>
       <c r="O368" s="3"/>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B369" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C369">
         <v>10023</v>
@@ -6066,9 +6068,9 @@
       </c>
       <c r="O369" s="3"/>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B370" t="s">
         <v>36</v>
@@ -6081,9 +6083,9 @@
       </c>
       <c r="O370" s="3"/>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B371" t="s">
         <v>0</v>
@@ -6096,12 +6098,12 @@
       </c>
       <c r="O371" s="3"/>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B372" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C372">
         <v>10023</v>
@@ -6111,9 +6113,9 @@
       </c>
       <c r="O372" s="3"/>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B373" t="s">
         <v>82</v>
@@ -6126,12 +6128,12 @@
       </c>
       <c r="O373" s="3"/>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B374" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C374">
         <v>10023</v>
@@ -6141,9 +6143,9 @@
       </c>
       <c r="O374" s="3"/>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B375" t="s">
         <v>36</v>
@@ -6156,9 +6158,9 @@
       </c>
       <c r="O375" s="3"/>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B376" t="s">
         <v>0</v>
@@ -6171,12 +6173,12 @@
       </c>
       <c r="O376" s="3"/>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="B377" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C377">
         <v>10023</v>
@@ -6186,9 +6188,9 @@
       </c>
       <c r="O377" s="3"/>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B378" t="s">
         <v>82</v>
@@ -6201,12 +6203,12 @@
       </c>
       <c r="O378" s="3"/>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B379" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C379">
         <v>10023</v>
@@ -6216,9 +6218,9 @@
       </c>
       <c r="O379" s="3"/>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B380" t="s">
         <v>36</v>
@@ -6231,9 +6233,9 @@
       </c>
       <c r="O380" s="3"/>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B381" t="s">
         <v>0</v>
@@ -6246,12 +6248,12 @@
       </c>
       <c r="O381" s="3"/>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B382" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C382">
         <v>10023</v>
@@ -6261,9 +6263,9 @@
       </c>
       <c r="O382" s="3"/>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B383" t="s">
         <v>82</v>
@@ -6276,12 +6278,12 @@
       </c>
       <c r="O383" s="3"/>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B384" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C384">
         <v>10023</v>
@@ -6291,9 +6293,9 @@
       </c>
       <c r="O384" s="3"/>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B385" t="s">
         <v>36</v>
@@ -6306,9 +6308,9 @@
       </c>
       <c r="O385" s="3"/>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B386" t="s">
         <v>0</v>
@@ -6321,12 +6323,12 @@
       </c>
       <c r="O386" s="3"/>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B387" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C387">
         <v>10023</v>
@@ -6336,9 +6338,9 @@
       </c>
       <c r="O387" s="3"/>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B388" t="s">
         <v>82</v>
@@ -6351,12 +6353,12 @@
       </c>
       <c r="O388" s="3"/>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B389" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C389">
         <v>10024</v>
@@ -6366,9 +6368,9 @@
       </c>
       <c r="O389" s="3"/>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B390" t="s">
         <v>36</v>
@@ -6381,9 +6383,9 @@
       </c>
       <c r="O390" s="3"/>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B391" t="s">
         <v>0</v>
@@ -6396,12 +6398,12 @@
       </c>
       <c r="O391" s="3"/>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B392" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C392">
         <v>10024</v>
@@ -6411,12 +6413,12 @@
       </c>
       <c r="O392" s="3"/>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B393" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C393">
         <v>10024</v>
@@ -6426,9 +6428,9 @@
       </c>
       <c r="O393" s="3"/>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B394" t="s">
         <v>82</v>
@@ -6441,12 +6443,12 @@
       </c>
       <c r="O394" s="3"/>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B395" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C395">
         <v>10024</v>
@@ -6456,9 +6458,9 @@
       </c>
       <c r="O395" s="3"/>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B396" t="s">
         <v>36</v>
@@ -6471,9 +6473,9 @@
       </c>
       <c r="O396" s="3"/>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B397" t="s">
         <v>0</v>
@@ -6486,12 +6488,12 @@
       </c>
       <c r="O397" s="3"/>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B398" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C398">
         <v>10024</v>
@@ -6501,12 +6503,12 @@
       </c>
       <c r="O398" s="3"/>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B399" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C399">
         <v>10024</v>
@@ -6516,9 +6518,9 @@
       </c>
       <c r="O399" s="3"/>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B400" t="s">
         <v>82</v>
@@ -6531,12 +6533,12 @@
       </c>
       <c r="O400" s="3"/>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B401" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C401">
         <v>10024</v>
@@ -6546,9 +6548,9 @@
       </c>
       <c r="O401" s="3"/>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B402" t="s">
         <v>36</v>
@@ -6561,9 +6563,9 @@
       </c>
       <c r="O402" s="3"/>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B403" t="s">
         <v>0</v>
@@ -6576,12 +6578,12 @@
       </c>
       <c r="O403" s="3"/>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B404" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C404">
         <v>10024</v>
@@ -6591,12 +6593,12 @@
       </c>
       <c r="O404" s="3"/>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B405" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C405">
         <v>10024</v>
@@ -6606,9 +6608,9 @@
       </c>
       <c r="O405" s="3"/>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B406" t="s">
         <v>82</v>
@@ -6621,12 +6623,12 @@
       </c>
       <c r="O406" s="3"/>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B407" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C407">
         <v>10024</v>
@@ -6636,9 +6638,9 @@
       </c>
       <c r="O407" s="3"/>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B408" t="s">
         <v>36</v>
@@ -6651,9 +6653,9 @@
       </c>
       <c r="O408" s="3"/>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B409" t="s">
         <v>0</v>
@@ -6666,12 +6668,12 @@
       </c>
       <c r="O409" s="3"/>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B410" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C410">
         <v>10024</v>
@@ -6681,12 +6683,12 @@
       </c>
       <c r="O410" s="3"/>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B411" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C411">
         <v>10024</v>
@@ -6696,9 +6698,9 @@
       </c>
       <c r="O411" s="3"/>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B412" t="s">
         <v>82</v>
@@ -6711,12 +6713,12 @@
       </c>
       <c r="O412" s="3"/>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B413" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C413">
         <v>10024</v>
@@ -6726,9 +6728,9 @@
       </c>
       <c r="O413" s="3"/>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B414" t="s">
         <v>36</v>
@@ -6741,9 +6743,9 @@
       </c>
       <c r="O414" s="3"/>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B415" t="s">
         <v>0</v>
@@ -6756,12 +6758,12 @@
       </c>
       <c r="O415" s="3"/>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B416" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C416">
         <v>10024</v>
@@ -6771,12 +6773,12 @@
       </c>
       <c r="O416" s="3"/>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B417" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C417">
         <v>10024</v>
@@ -6786,9 +6788,9 @@
       </c>
       <c r="O417" s="3"/>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B418" t="s">
         <v>82</v>
@@ -6801,12 +6803,12 @@
       </c>
       <c r="O418" s="3"/>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B419" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C419">
         <v>10024</v>
@@ -6816,9 +6818,9 @@
       </c>
       <c r="O419" s="3"/>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B420" t="s">
         <v>36</v>
@@ -6831,9 +6833,9 @@
       </c>
       <c r="O420" s="3"/>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B421" t="s">
         <v>0</v>
@@ -6846,12 +6848,12 @@
       </c>
       <c r="O421" s="3"/>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B422" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C422">
         <v>10024</v>
@@ -6861,12 +6863,12 @@
       </c>
       <c r="O422" s="3"/>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B423" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C423">
         <v>10024</v>
@@ -6876,9 +6878,9 @@
       </c>
       <c r="O423" s="3"/>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B424" t="s">
         <v>82</v>
@@ -6891,12 +6893,12 @@
       </c>
       <c r="O424" s="3"/>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B425" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C425">
         <v>10024</v>
@@ -6906,9 +6908,9 @@
       </c>
       <c r="O425" s="3"/>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B426" t="s">
         <v>36</v>
@@ -6921,9 +6923,9 @@
       </c>
       <c r="O426" s="3"/>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B427" t="s">
         <v>0</v>
@@ -6936,12 +6938,12 @@
       </c>
       <c r="O427" s="3"/>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B428" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C428">
         <v>10024</v>
@@ -6951,12 +6953,12 @@
       </c>
       <c r="O428" s="3"/>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B429" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C429">
         <v>10024</v>
@@ -6966,9 +6968,9 @@
       </c>
       <c r="O429" s="3"/>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B430" t="s">
         <v>82</v>
@@ -6981,12 +6983,12 @@
       </c>
       <c r="O430" s="3"/>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B431" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C431">
         <v>10024</v>
@@ -6996,9 +6998,9 @@
       </c>
       <c r="O431" s="3"/>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B432" t="s">
         <v>36</v>
@@ -7011,9 +7013,9 @@
       </c>
       <c r="O432" s="3"/>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B433" t="s">
         <v>0</v>
@@ -7026,12 +7028,12 @@
       </c>
       <c r="O433" s="3"/>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B434" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C434">
         <v>10024</v>
@@ -7041,12 +7043,12 @@
       </c>
       <c r="O434" s="3"/>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B435" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C435">
         <v>10024</v>
@@ -7056,9 +7058,9 @@
       </c>
       <c r="O435" s="3"/>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B436" t="s">
         <v>82</v>
@@ -7071,12 +7073,12 @@
       </c>
       <c r="O436" s="3"/>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B437" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C437">
         <v>10024</v>
@@ -7086,9 +7088,9 @@
       </c>
       <c r="O437" s="3"/>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B438" t="s">
         <v>36</v>
@@ -7101,9 +7103,9 @@
       </c>
       <c r="O438" s="3"/>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B439" t="s">
         <v>0</v>
@@ -7116,12 +7118,12 @@
       </c>
       <c r="O439" s="3"/>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B440" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C440">
         <v>10024</v>
@@ -7131,12 +7133,12 @@
       </c>
       <c r="O440" s="3"/>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="B441" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C441">
         <v>10024</v>
@@ -7146,9 +7148,9 @@
       </c>
       <c r="O441" s="3"/>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B442" t="s">
         <v>82</v>
@@ -7161,12 +7163,12 @@
       </c>
       <c r="O442" s="3"/>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B443" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C443">
         <v>10024</v>
@@ -7176,9 +7178,9 @@
       </c>
       <c r="O443" s="3"/>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B444" t="s">
         <v>36</v>
@@ -7191,9 +7193,9 @@
       </c>
       <c r="O444" s="3"/>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B445" t="s">
         <v>0</v>
@@ -7206,12 +7208,12 @@
       </c>
       <c r="O445" s="3"/>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B446" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C446">
         <v>10024</v>
@@ -7221,12 +7223,12 @@
       </c>
       <c r="O446" s="3"/>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B447" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C447">
         <v>10024</v>
@@ -7236,9 +7238,9 @@
       </c>
       <c r="O447" s="3"/>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B448" t="s">
         <v>82</v>
@@ -7251,12 +7253,12 @@
       </c>
       <c r="O448" s="3"/>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B449" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C449">
         <v>10024</v>
@@ -7266,9 +7268,9 @@
       </c>
       <c r="O449" s="3"/>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B450" t="s">
         <v>36</v>
@@ -7281,9 +7283,9 @@
       </c>
       <c r="O450" s="3"/>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B451" t="s">
         <v>0</v>
@@ -7296,12 +7298,12 @@
       </c>
       <c r="O451" s="3"/>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B452" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C452">
         <v>10024</v>
@@ -7311,12 +7313,12 @@
       </c>
       <c r="O452" s="3"/>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B453" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C453">
         <v>10024</v>
@@ -7326,9 +7328,9 @@
       </c>
       <c r="O453" s="3"/>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B454" t="s">
         <v>82</v>
@@ -7341,12 +7343,12 @@
       </c>
       <c r="O454" s="3"/>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B455" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C455">
         <v>10024</v>
@@ -7356,9 +7358,9 @@
       </c>
       <c r="O455" s="3"/>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B456" t="s">
         <v>36</v>
@@ -7371,9 +7373,9 @@
       </c>
       <c r="O456" s="3"/>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B457" t="s">
         <v>0</v>
@@ -7386,12 +7388,12 @@
       </c>
       <c r="O457" s="3"/>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B458" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C458">
         <v>10024</v>
@@ -7401,12 +7403,12 @@
       </c>
       <c r="O458" s="3"/>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B459" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C459">
         <v>10024</v>
@@ -7416,9 +7418,9 @@
       </c>
       <c r="O459" s="3"/>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B460" t="s">
         <v>82</v>
@@ -7431,12 +7433,12 @@
       </c>
       <c r="O460" s="3"/>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B461" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C461">
         <v>10024</v>
@@ -7446,9 +7448,9 @@
       </c>
       <c r="O461" s="3"/>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B462" t="s">
         <v>36</v>
@@ -7461,9 +7463,9 @@
       </c>
       <c r="O462" s="3"/>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B463" t="s">
         <v>0</v>
@@ -7476,12 +7478,12 @@
       </c>
       <c r="O463" s="3"/>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B464" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C464">
         <v>10024</v>
@@ -7491,12 +7493,12 @@
       </c>
       <c r="O464" s="3"/>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B465" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C465">
         <v>10024</v>
@@ -7506,9 +7508,9 @@
       </c>
       <c r="O465" s="3"/>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B466" t="s">
         <v>82</v>
@@ -7521,12 +7523,12 @@
       </c>
       <c r="O466" s="3"/>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B467" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C467">
         <v>10024</v>
@@ -7536,9 +7538,9 @@
       </c>
       <c r="O467" s="3"/>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B468" t="s">
         <v>36</v>
@@ -7551,9 +7553,9 @@
       </c>
       <c r="O468" s="3"/>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B469" t="s">
         <v>0</v>
@@ -7566,12 +7568,12 @@
       </c>
       <c r="O469" s="3"/>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B470" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C470">
         <v>10024</v>
@@ -7581,12 +7583,12 @@
       </c>
       <c r="O470" s="3"/>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B471" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C471">
         <v>10024</v>
@@ -7596,9 +7598,9 @@
       </c>
       <c r="O471" s="3"/>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B472" t="s">
         <v>82</v>
@@ -7611,12 +7613,12 @@
       </c>
       <c r="O472" s="3"/>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B473" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C473">
         <v>10024</v>
@@ -7626,9 +7628,9 @@
       </c>
       <c r="O473" s="3"/>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B474" t="s">
         <v>36</v>
@@ -7641,9 +7643,9 @@
       </c>
       <c r="O474" s="3"/>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B475" t="s">
         <v>0</v>
@@ -7656,12 +7658,12 @@
       </c>
       <c r="O475" s="3"/>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B476" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C476">
         <v>10024</v>
@@ -7671,12 +7673,12 @@
       </c>
       <c r="O476" s="3"/>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B477" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C477">
         <v>10024</v>
@@ -7686,9 +7688,9 @@
       </c>
       <c r="O477" s="3"/>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B478" t="s">
         <v>82</v>
@@ -7701,12 +7703,12 @@
       </c>
       <c r="O478" s="3"/>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
+        <v>116</v>
+      </c>
+      <c r="B479" t="s">
         <v>83</v>
-      </c>
-      <c r="B479" t="s">
-        <v>84</v>
       </c>
       <c r="C479">
         <v>10024</v>
@@ -7716,9 +7718,9 @@
       </c>
       <c r="O479" s="3"/>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B480" t="s">
         <v>36</v>
@@ -7731,9 +7733,9 @@
       </c>
       <c r="O480" s="3"/>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B481" t="s">
         <v>0</v>
@@ -7746,12 +7748,12 @@
       </c>
       <c r="O481" s="3"/>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B482" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C482">
         <v>10024</v>
@@ -7761,12 +7763,12 @@
       </c>
       <c r="O482" s="3"/>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="B483" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C483">
         <v>10024</v>
@@ -7776,12 +7778,12 @@
       </c>
       <c r="O483" s="3"/>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B484" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C484">
         <v>10025</v>
@@ -7791,9 +7793,9 @@
       </c>
       <c r="O484" s="3"/>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B485" t="s">
         <v>36</v>
@@ -7806,28 +7808,28 @@
       </c>
       <c r="O485" s="3"/>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B486" t="s">
+        <v>84</v>
+      </c>
+      <c r="C486">
+        <v>10025</v>
+      </c>
+      <c r="D486" t="s">
+        <v>81</v>
+      </c>
+      <c r="O486" s="3"/>
+    </row>
+    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>117</v>
+      </c>
+      <c r="B487" t="s">
         <v>85</v>
       </c>
-      <c r="C486">
-        <v>10025</v>
-      </c>
-      <c r="D486" t="s">
-        <v>81</v>
-      </c>
-      <c r="O486" s="3"/>
-    </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A487" t="s">
-        <v>120</v>
-      </c>
-      <c r="B487" t="s">
-        <v>86</v>
-      </c>
       <c r="C487">
         <v>10025</v>
       </c>
@@ -7836,12 +7838,12 @@
       </c>
       <c r="O487" s="3"/>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B488" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C488">
         <v>10025</v>
@@ -7851,9 +7853,9 @@
       </c>
       <c r="O488" s="3"/>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B489" t="s">
         <v>36</v>
@@ -7866,28 +7868,28 @@
       </c>
       <c r="O489" s="3"/>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B490" t="s">
+        <v>84</v>
+      </c>
+      <c r="C490">
+        <v>10025</v>
+      </c>
+      <c r="D490" t="s">
+        <v>81</v>
+      </c>
+      <c r="O490" s="3"/>
+    </row>
+    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>118</v>
+      </c>
+      <c r="B491" t="s">
         <v>85</v>
       </c>
-      <c r="C490">
-        <v>10025</v>
-      </c>
-      <c r="D490" t="s">
-        <v>81</v>
-      </c>
-      <c r="O490" s="3"/>
-    </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A491" t="s">
-        <v>121</v>
-      </c>
-      <c r="B491" t="s">
-        <v>86</v>
-      </c>
       <c r="C491">
         <v>10025</v>
       </c>
@@ -7896,12 +7898,12 @@
       </c>
       <c r="O491" s="3"/>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B492" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C492">
         <v>10025</v>
@@ -7911,9 +7913,9 @@
       </c>
       <c r="O492" s="3"/>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B493" t="s">
         <v>36</v>
@@ -7926,28 +7928,28 @@
       </c>
       <c r="O493" s="3"/>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B494" t="s">
+        <v>84</v>
+      </c>
+      <c r="C494">
+        <v>10025</v>
+      </c>
+      <c r="D494" t="s">
+        <v>81</v>
+      </c>
+      <c r="O494" s="3"/>
+    </row>
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>119</v>
+      </c>
+      <c r="B495" t="s">
         <v>85</v>
       </c>
-      <c r="C494">
-        <v>10025</v>
-      </c>
-      <c r="D494" t="s">
-        <v>81</v>
-      </c>
-      <c r="O494" s="3"/>
-    </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>122</v>
-      </c>
-      <c r="B495" t="s">
-        <v>86</v>
-      </c>
       <c r="C495">
         <v>10025</v>
       </c>
@@ -7956,12 +7958,12 @@
       </c>
       <c r="O495" s="3"/>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B496" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C496">
         <v>10025</v>
@@ -7971,9 +7973,9 @@
       </c>
       <c r="O496" s="3"/>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B497" t="s">
         <v>36</v>
@@ -7986,28 +7988,28 @@
       </c>
       <c r="O497" s="3"/>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B498" t="s">
+        <v>84</v>
+      </c>
+      <c r="C498">
+        <v>10025</v>
+      </c>
+      <c r="D498" t="s">
+        <v>81</v>
+      </c>
+      <c r="O498" s="3"/>
+    </row>
+    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>120</v>
+      </c>
+      <c r="B499" t="s">
         <v>85</v>
       </c>
-      <c r="C498">
-        <v>10025</v>
-      </c>
-      <c r="D498" t="s">
-        <v>81</v>
-      </c>
-      <c r="O498" s="3"/>
-    </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>123</v>
-      </c>
-      <c r="B499" t="s">
-        <v>86</v>
-      </c>
       <c r="C499">
         <v>10025</v>
       </c>
@@ -8016,12 +8018,12 @@
       </c>
       <c r="O499" s="3"/>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B500" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C500">
         <v>10025</v>
@@ -8031,9 +8033,9 @@
       </c>
       <c r="O500" s="3"/>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B501" t="s">
         <v>36</v>
@@ -8046,28 +8048,28 @@
       </c>
       <c r="O501" s="3"/>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B502" t="s">
+        <v>84</v>
+      </c>
+      <c r="C502">
+        <v>10025</v>
+      </c>
+      <c r="D502" t="s">
+        <v>81</v>
+      </c>
+      <c r="O502" s="3"/>
+    </row>
+    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>121</v>
+      </c>
+      <c r="B503" t="s">
         <v>85</v>
       </c>
-      <c r="C502">
-        <v>10025</v>
-      </c>
-      <c r="D502" t="s">
-        <v>81</v>
-      </c>
-      <c r="O502" s="3"/>
-    </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>124</v>
-      </c>
-      <c r="B503" t="s">
-        <v>86</v>
-      </c>
       <c r="C503">
         <v>10025</v>
       </c>
@@ -8076,12 +8078,12 @@
       </c>
       <c r="O503" s="3"/>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B504" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C504">
         <v>10025</v>
@@ -8091,12 +8093,12 @@
       </c>
       <c r="O504" s="3"/>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B505" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C505">
         <v>10025</v>
@@ -8106,9 +8108,9 @@
       </c>
       <c r="O505" s="3"/>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B506" t="s">
         <v>36</v>
@@ -8121,28 +8123,28 @@
       </c>
       <c r="O506" s="3"/>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B507" t="s">
+        <v>84</v>
+      </c>
+      <c r="C507">
+        <v>10025</v>
+      </c>
+      <c r="D507" t="s">
+        <v>81</v>
+      </c>
+      <c r="O507" s="3"/>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>122</v>
+      </c>
+      <c r="B508" t="s">
         <v>85</v>
       </c>
-      <c r="C507">
-        <v>10025</v>
-      </c>
-      <c r="D507" t="s">
-        <v>81</v>
-      </c>
-      <c r="O507" s="3"/>
-    </row>
-    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A508" t="s">
-        <v>125</v>
-      </c>
-      <c r="B508" t="s">
-        <v>86</v>
-      </c>
       <c r="C508">
         <v>10025</v>
       </c>
@@ -8151,9 +8153,9 @@
       </c>
       <c r="O508" s="3"/>
     </row>
-    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B509" t="s">
         <v>82</v>
@@ -8166,12 +8168,12 @@
       </c>
       <c r="O509" s="3"/>
     </row>
-    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B510" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C510">
         <v>10025</v>
@@ -8181,12 +8183,12 @@
       </c>
       <c r="O510" s="3"/>
     </row>
-    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B511" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C511">
         <v>10025</v>
@@ -8195,9 +8197,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B512" t="s">
         <v>36</v>
@@ -8209,27 +8211,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B513" t="s">
+        <v>84</v>
+      </c>
+      <c r="C513">
+        <v>10025</v>
+      </c>
+      <c r="D513" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>123</v>
+      </c>
+      <c r="B514" t="s">
         <v>85</v>
       </c>
-      <c r="C513">
-        <v>10025</v>
-      </c>
-      <c r="D513" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A514" t="s">
-        <v>127</v>
-      </c>
-      <c r="B514" t="s">
-        <v>86</v>
-      </c>
       <c r="C514">
         <v>10025</v>
       </c>
@@ -8237,9 +8239,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B515" t="s">
         <v>82</v>
@@ -8251,12 +8253,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B516" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C516">
         <v>10025</v>
@@ -8265,12 +8267,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B517" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C517">
         <v>10025</v>
@@ -8279,9 +8281,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B518" t="s">
         <v>36</v>
@@ -8293,27 +8295,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B519" t="s">
+        <v>84</v>
+      </c>
+      <c r="C519">
+        <v>10025</v>
+      </c>
+      <c r="D519" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>124</v>
+      </c>
+      <c r="B520" t="s">
         <v>85</v>
       </c>
-      <c r="C519">
-        <v>10025</v>
-      </c>
-      <c r="D519" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A520" t="s">
-        <v>128</v>
-      </c>
-      <c r="B520" t="s">
-        <v>86</v>
-      </c>
       <c r="C520">
         <v>10025</v>
       </c>
@@ -8321,9 +8323,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B521" t="s">
         <v>82</v>
@@ -8335,12 +8337,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B522" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C522">
         <v>10025</v>
@@ -8349,12 +8351,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B523" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C523">
         <v>10025</v>
@@ -8363,9 +8365,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B524" t="s">
         <v>0</v>
@@ -8377,9 +8379,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B525" t="s">
         <v>36</v>
@@ -8391,27 +8393,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B526" t="s">
+        <v>84</v>
+      </c>
+      <c r="C526">
+        <v>10025</v>
+      </c>
+      <c r="D526" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>125</v>
+      </c>
+      <c r="B527" t="s">
         <v>85</v>
       </c>
-      <c r="C526">
-        <v>10025</v>
-      </c>
-      <c r="D526" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A527" t="s">
-        <v>129</v>
-      </c>
-      <c r="B527" t="s">
-        <v>86</v>
-      </c>
       <c r="C527">
         <v>10025</v>
       </c>
@@ -8419,9 +8421,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B528" t="s">
         <v>82</v>
@@ -8433,26 +8435,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B529" t="s">
+        <v>87</v>
+      </c>
+      <c r="C529">
+        <v>10025</v>
+      </c>
+      <c r="D529" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
         <v>126</v>
       </c>
-      <c r="C529">
-        <v>10025</v>
-      </c>
-      <c r="D529" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A530" t="s">
-        <v>130</v>
-      </c>
       <c r="B530" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C530">
         <v>10025</v>
@@ -8461,9 +8463,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B531" t="s">
         <v>36</v>
@@ -8475,9 +8477,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B532" t="s">
         <v>0</v>
@@ -8489,27 +8491,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B533" t="s">
+        <v>84</v>
+      </c>
+      <c r="C533">
+        <v>10025</v>
+      </c>
+      <c r="D533" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>126</v>
+      </c>
+      <c r="B534" t="s">
         <v>85</v>
       </c>
-      <c r="C533">
-        <v>10025</v>
-      </c>
-      <c r="D533" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A534" t="s">
-        <v>130</v>
-      </c>
-      <c r="B534" t="s">
-        <v>86</v>
-      </c>
       <c r="C534">
         <v>10025</v>
       </c>
@@ -8517,9 +8519,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B535" t="s">
         <v>82</v>
@@ -8531,12 +8533,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B536" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C536">
         <v>10025</v>
@@ -8545,12 +8547,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B537" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C537">
         <v>10025</v>
@@ -8559,9 +8561,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B538" t="s">
         <v>36</v>
@@ -8573,9 +8575,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B539" t="s">
         <v>0</v>
@@ -8587,27 +8589,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B540" t="s">
+        <v>84</v>
+      </c>
+      <c r="C540">
+        <v>10025</v>
+      </c>
+      <c r="D540" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>127</v>
+      </c>
+      <c r="B541" t="s">
         <v>85</v>
       </c>
-      <c r="C540">
-        <v>10025</v>
-      </c>
-      <c r="D540" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A541" t="s">
-        <v>131</v>
-      </c>
-      <c r="B541" t="s">
-        <v>86</v>
-      </c>
       <c r="C541">
         <v>10025</v>
       </c>
@@ -8615,9 +8617,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B542" t="s">
         <v>82</v>
@@ -8629,12 +8631,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B543" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C543">
         <v>10025</v>
@@ -8643,12 +8645,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B544" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C544">
         <v>10025</v>
@@ -8657,9 +8659,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B545" t="s">
         <v>36</v>
@@ -8671,9 +8673,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B546" t="s">
         <v>0</v>
@@ -8685,27 +8687,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B547" t="s">
+        <v>84</v>
+      </c>
+      <c r="C547">
+        <v>10025</v>
+      </c>
+      <c r="D547" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>128</v>
+      </c>
+      <c r="B548" t="s">
         <v>85</v>
       </c>
-      <c r="C547">
-        <v>10025</v>
-      </c>
-      <c r="D547" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A548" t="s">
-        <v>132</v>
-      </c>
-      <c r="B548" t="s">
-        <v>86</v>
-      </c>
       <c r="C548">
         <v>10025</v>
       </c>
@@ -8713,9 +8715,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B549" t="s">
         <v>82</v>
@@ -8727,12 +8729,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B550" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C550">
         <v>10025</v>
@@ -8741,12 +8743,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B551" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C551">
         <v>10025</v>
@@ -8755,9 +8757,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B552" t="s">
         <v>36</v>
@@ -8769,9 +8771,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B553" t="s">
         <v>0</v>
@@ -8783,27 +8785,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B554" t="s">
+        <v>84</v>
+      </c>
+      <c r="C554">
+        <v>10025</v>
+      </c>
+      <c r="D554" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A555" t="s">
+        <v>130</v>
+      </c>
+      <c r="B555" t="s">
         <v>85</v>
       </c>
-      <c r="C554">
-        <v>10025</v>
-      </c>
-      <c r="D554" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A555" t="s">
-        <v>134</v>
-      </c>
-      <c r="B555" t="s">
-        <v>86</v>
-      </c>
       <c r="C555">
         <v>10025</v>
       </c>
@@ -8811,9 +8813,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B556" t="s">
         <v>82</v>
@@ -8825,12 +8827,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B557" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C557">
         <v>10025</v>
@@ -8839,12 +8841,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B558" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C558">
         <v>10025</v>
@@ -8853,9 +8855,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B559" t="s">
         <v>36</v>
@@ -8867,9 +8869,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B560" t="s">
         <v>0</v>
@@ -8881,27 +8883,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B561" t="s">
+        <v>84</v>
+      </c>
+      <c r="C561">
+        <v>10025</v>
+      </c>
+      <c r="D561" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A562" t="s">
+        <v>131</v>
+      </c>
+      <c r="B562" t="s">
         <v>85</v>
       </c>
-      <c r="C561">
-        <v>10025</v>
-      </c>
-      <c r="D561" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A562" t="s">
-        <v>135</v>
-      </c>
-      <c r="B562" t="s">
-        <v>86</v>
-      </c>
       <c r="C562">
         <v>10025</v>
       </c>
@@ -8909,9 +8911,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B563" t="s">
         <v>82</v>
@@ -8923,12 +8925,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B564" t="s">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="C564">
         <v>10025</v>
@@ -8937,12 +8939,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B565" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C565">
         <v>10025</v>
@@ -8951,9 +8953,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B566" t="s">
         <v>36</v>
@@ -8965,9 +8967,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B567" t="s">
         <v>0</v>
@@ -8979,27 +8981,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B568" t="s">
+        <v>84</v>
+      </c>
+      <c r="C568">
+        <v>10025</v>
+      </c>
+      <c r="D568" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A569" t="s">
+        <v>132</v>
+      </c>
+      <c r="B569" t="s">
         <v>85</v>
       </c>
-      <c r="C568">
-        <v>10025</v>
-      </c>
-      <c r="D568" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A569" t="s">
-        <v>136</v>
-      </c>
-      <c r="B569" t="s">
-        <v>86</v>
-      </c>
       <c r="C569">
         <v>10025</v>
       </c>
@@ -9007,9 +9009,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B570" t="s">
         <v>82</v>
@@ -9021,12 +9023,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B571" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C571">
         <v>10025</v>
@@ -9035,9 +9037,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B572" t="s">
         <v>36</v>
@@ -9049,12 +9051,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B573" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C573">
         <v>10025</v>
@@ -9063,27 +9065,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B574" t="s">
+        <v>84</v>
+      </c>
+      <c r="C574">
+        <v>10025</v>
+      </c>
+      <c r="D574" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A575" t="s">
+        <v>133</v>
+      </c>
+      <c r="B575" t="s">
         <v>85</v>
       </c>
-      <c r="C574">
-        <v>10025</v>
-      </c>
-      <c r="D574" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A575" t="s">
-        <v>137</v>
-      </c>
-      <c r="B575" t="s">
-        <v>86</v>
-      </c>
       <c r="C575">
         <v>10025</v>
       </c>
@@ -9091,9 +9093,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B576" t="s">
         <v>82</v>
@@ -9105,12 +9107,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B577" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C577">
         <v>10025</v>
@@ -9119,9 +9121,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B578" t="s">
         <v>36</v>
@@ -9133,12 +9135,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B579" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C579">
         <v>10025</v>
@@ -9147,27 +9149,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B580" t="s">
+        <v>84</v>
+      </c>
+      <c r="C580">
+        <v>10025</v>
+      </c>
+      <c r="D580" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A581" t="s">
+        <v>134</v>
+      </c>
+      <c r="B581" t="s">
         <v>85</v>
       </c>
-      <c r="C580">
-        <v>10025</v>
-      </c>
-      <c r="D580" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A581" t="s">
-        <v>139</v>
-      </c>
-      <c r="B581" t="s">
-        <v>86</v>
-      </c>
       <c r="C581">
         <v>10025</v>
       </c>
@@ -9175,9 +9177,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B582" t="s">
         <v>82</v>
@@ -9189,12 +9191,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B583" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C583">
         <v>10025</v>
@@ -9203,9 +9205,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B584" t="s">
         <v>36</v>
@@ -9217,12 +9219,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B585" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C585">
         <v>10025</v>
@@ -9231,27 +9233,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B586" t="s">
+        <v>84</v>
+      </c>
+      <c r="C586">
+        <v>10025</v>
+      </c>
+      <c r="D586" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A587" t="s">
+        <v>135</v>
+      </c>
+      <c r="B587" t="s">
         <v>85</v>
       </c>
-      <c r="C586">
-        <v>10025</v>
-      </c>
-      <c r="D586" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A587" t="s">
-        <v>140</v>
-      </c>
-      <c r="B587" t="s">
-        <v>86</v>
-      </c>
       <c r="C587">
         <v>10025</v>
       </c>
@@ -9259,9 +9261,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B588" t="s">
         <v>82</v>
@@ -9273,12 +9275,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B589" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C589">
         <v>10025</v>
@@ -9287,9 +9289,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B590" t="s">
         <v>36</v>
@@ -9301,12 +9303,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B591" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C591">
         <v>10025</v>
@@ -9315,27 +9317,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B592" t="s">
+        <v>84</v>
+      </c>
+      <c r="C592">
+        <v>10025</v>
+      </c>
+      <c r="D592" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A593" t="s">
+        <v>136</v>
+      </c>
+      <c r="B593" t="s">
         <v>85</v>
       </c>
-      <c r="C592">
-        <v>10025</v>
-      </c>
-      <c r="D592" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A593" t="s">
-        <v>141</v>
-      </c>
-      <c r="B593" t="s">
-        <v>86</v>
-      </c>
       <c r="C593">
         <v>10025</v>
       </c>
@@ -9343,9 +9345,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B594" t="s">
         <v>82</v>
@@ -9357,12 +9359,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B595" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C595">
         <v>10025</v>
@@ -9371,9 +9373,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B596" t="s">
         <v>36</v>
@@ -9385,51 +9387,51 @@
         <v>81</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B597" t="s">
+        <v>88</v>
+      </c>
+      <c r="C597">
+        <v>10025</v>
+      </c>
+      <c r="D597" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A598" t="s">
+        <v>137</v>
+      </c>
+      <c r="B598" t="s">
+        <v>84</v>
+      </c>
+      <c r="C598">
+        <v>10025</v>
+      </c>
+      <c r="D598" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A599" t="s">
+        <v>137</v>
+      </c>
+      <c r="B599" t="s">
+        <v>85</v>
+      </c>
+      <c r="C599">
+        <v>10025</v>
+      </c>
+      <c r="D599" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A600" t="s">
         <v>138</v>
-      </c>
-      <c r="C597">
-        <v>10025</v>
-      </c>
-      <c r="D597" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A598" t="s">
-        <v>142</v>
-      </c>
-      <c r="B598" t="s">
-        <v>85</v>
-      </c>
-      <c r="C598">
-        <v>10025</v>
-      </c>
-      <c r="D598" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A599" t="s">
-        <v>142</v>
-      </c>
-      <c r="B599" t="s">
-        <v>86</v>
-      </c>
-      <c r="C599">
-        <v>10025</v>
-      </c>
-      <c r="D599" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A600" t="s">
-        <v>143</v>
       </c>
       <c r="B600" t="s">
         <v>82</v>
@@ -9441,12 +9443,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B601" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C601">
         <v>10025</v>
@@ -9455,9 +9457,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B602" t="s">
         <v>36</v>
@@ -9469,41 +9471,41 @@
         <v>81</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B603" t="s">
+        <v>88</v>
+      </c>
+      <c r="C603">
+        <v>10025</v>
+      </c>
+      <c r="D603" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A604" t="s">
         <v>138</v>
       </c>
-      <c r="C603">
-        <v>10025</v>
-      </c>
-      <c r="D603" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A604" t="s">
-        <v>143</v>
-      </c>
       <c r="B604" t="s">
+        <v>84</v>
+      </c>
+      <c r="C604">
+        <v>10025</v>
+      </c>
+      <c r="D604" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A605" t="s">
+        <v>138</v>
+      </c>
+      <c r="B605" t="s">
         <v>85</v>
       </c>
-      <c r="C604">
-        <v>10025</v>
-      </c>
-      <c r="D604" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A605" t="s">
-        <v>143</v>
-      </c>
-      <c r="B605" t="s">
-        <v>86</v>
-      </c>
       <c r="C605">
         <v>10025</v>
       </c>
@@ -9511,9 +9513,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B606" t="s">
         <v>82</v>
@@ -9525,12 +9527,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B607" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C607">
         <v>10025</v>
@@ -9539,9 +9541,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B608" t="s">
         <v>36</v>
@@ -9553,12 +9555,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B609" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C609">
         <v>10025</v>
@@ -9567,27 +9569,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B610" t="s">
+        <v>84</v>
+      </c>
+      <c r="C610">
+        <v>10025</v>
+      </c>
+      <c r="D610" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A611" t="s">
+        <v>139</v>
+      </c>
+      <c r="B611" t="s">
         <v>85</v>
       </c>
-      <c r="C610">
-        <v>10025</v>
-      </c>
-      <c r="D610" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A611" t="s">
-        <v>144</v>
-      </c>
-      <c r="B611" t="s">
-        <v>86</v>
-      </c>
       <c r="C611">
         <v>10025</v>
       </c>
@@ -9595,9 +9597,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B612" t="s">
         <v>82</v>
@@ -9609,12 +9611,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B613" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C613">
         <v>10025</v>
@@ -9623,9 +9625,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B614" t="s">
         <v>36</v>
@@ -9637,12 +9639,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B615" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C615">
         <v>10025</v>
@@ -9651,27 +9653,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B616" t="s">
+        <v>84</v>
+      </c>
+      <c r="C616">
+        <v>10025</v>
+      </c>
+      <c r="D616" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A617" t="s">
+        <v>140</v>
+      </c>
+      <c r="B617" t="s">
         <v>85</v>
       </c>
-      <c r="C616">
-        <v>10025</v>
-      </c>
-      <c r="D616" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A617" t="s">
-        <v>145</v>
-      </c>
-      <c r="B617" t="s">
-        <v>86</v>
-      </c>
       <c r="C617">
         <v>10025</v>
       </c>
@@ -9679,9 +9681,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B618" t="s">
         <v>82</v>
@@ -9693,12 +9695,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B619" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C619">
         <v>10025</v>
@@ -9707,9 +9709,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B620" t="s">
         <v>36</v>
@@ -9721,12 +9723,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B621" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C621">
         <v>10025</v>
@@ -9735,26 +9737,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B622" t="s">
+        <v>84</v>
+      </c>
+      <c r="C622">
+        <v>10025</v>
+      </c>
+      <c r="D622" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A623" t="s">
+        <v>144</v>
+      </c>
+      <c r="B623" t="s">
         <v>85</v>
-      </c>
-      <c r="C622">
-        <v>10025</v>
-      </c>
-      <c r="D622" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A623" t="s">
-        <v>105</v>
-      </c>
-      <c r="B623" t="s">
-        <v>86</v>
       </c>
       <c r="C623">
         <v>10025</v>
